--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7A183B-2190-45A7-9998-ED54CB1398DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146CCDA-C151-417D-A60F-09E1CE75C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>Bezirk</t>
   </si>
@@ -884,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -894,10 +894,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1295,12 +1291,12 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B8" sqref="B8:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
@@ -1533,23 +1529,25 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C8">
         <v>99</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>48.183644993163902</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>16.327764778217102</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -1558,23 +1556,25 @@
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="10">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9">
         <v>48.227767239604397</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>16.364011620482898</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
@@ -1583,23 +1583,25 @@
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="10">
-        <v>99</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10">
         <v>48.248451460447001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>16.365810794397799</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -1608,23 +1610,25 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>99</v>
+      </c>
+      <c r="D11">
         <v>48.1848015142332</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>16.334943316802502</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="J11" s="1"/>
@@ -1633,23 +1637,25 @@
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10">
-        <v>99</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12">
         <v>48.130515204099098</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>16.3098375340189</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12">
         <v>0</v>
       </c>
       <c r="J12" s="1"/>
@@ -1658,23 +1664,25 @@
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10">
-        <v>99</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13">
         <v>48.235217131100498</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>16.368636832930299</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
@@ -1683,23 +1691,25 @@
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10">
-        <v>99</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+      <c r="D14">
         <v>48.141921600787903</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>16.316531068234401</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="J14" s="1"/>
@@ -1708,23 +1718,25 @@
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10">
-        <v>99</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+      <c r="D15">
         <v>48.256204731052698</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>16.400442533397499</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="J15" s="1"/>
@@ -1733,23 +1745,25 @@
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10">
-        <v>99</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16">
         <v>48.226254178910303</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>16.508438129988999</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="J16" s="1"/>
@@ -1758,23 +1772,25 @@
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10">
-        <v>99</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>99</v>
+      </c>
+      <c r="D17">
         <v>48.219817359097704</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17">
         <v>16.449662667515199</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17">
         <v>0</v>
       </c>
       <c r="J17" s="1"/>
@@ -1783,23 +1799,25 @@
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10">
-        <v>99</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
         <v>48.233409768503201</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <v>16.485772626975599</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="J18" s="1"/>
@@ -1808,23 +1826,25 @@
       <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="10">
-        <v>99</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
+      </c>
+      <c r="D19">
         <v>48.222523966125998</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
         <v>16.474871718755502</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19">
         <v>0</v>
       </c>
       <c r="J19" s="1"/>
@@ -1833,23 +1853,25 @@
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10">
-        <v>99</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20">
         <v>48.219419110545097</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>16.466612161098698</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="J20" s="1"/>
@@ -1858,23 +1880,25 @@
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10">
-        <v>99</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21">
         <v>48.220896078368298</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>16.457749951315201</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="J21" s="1"/>
@@ -1883,23 +1907,25 @@
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="10">
-        <v>99</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+      <c r="D22">
         <v>48.211768603479896</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
         <v>16.440125089908801</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="J22" s="1"/>
@@ -1908,23 +1934,25 @@
       <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="10">
-        <v>99</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23">
         <v>48.2345079150533</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23">
         <v>16.5044937908843</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
@@ -1933,23 +1961,25 @@
       <c r="A24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="10">
-        <v>99</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>99</v>
+      </c>
+      <c r="D24">
         <v>48.2064650265471</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>16.431617486203798</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="J24" s="1"/>
@@ -1958,23 +1988,25 @@
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="10">
-        <v>99</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>99</v>
+      </c>
+      <c r="D25">
         <v>48.210671402885502</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25">
         <v>16.420255255579601</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="J25" s="1"/>
@@ -1983,23 +2015,25 @@
       <c r="A26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="10">
-        <v>99</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>99</v>
+      </c>
+      <c r="D26">
         <v>48.214686271632097</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26">
         <v>16.413752066012002</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26">
         <v>0</v>
       </c>
       <c r="J26" s="1"/>
@@ -2008,23 +2042,25 @@
       <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="10">
-        <v>99</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>99</v>
+      </c>
+      <c r="D27">
         <v>48.217792010671999</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>16.404963120853299</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="J27" s="1"/>
@@ -2033,23 +2069,25 @@
       <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="10">
-        <v>99</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>99</v>
+      </c>
+      <c r="D28">
         <v>48.277517865692502</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>16.452139552735201</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="J28" s="1"/>
@@ -2058,23 +2096,25 @@
       <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="10">
-        <v>99</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29">
         <v>48.271010765636902</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29">
         <v>16.4478823771306</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -2083,23 +2123,25 @@
       <c r="A30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="10">
-        <v>99</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>99</v>
+      </c>
+      <c r="D30">
         <v>48.238337984732603</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30">
         <v>16.424901236767599</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
@@ -2108,23 +2150,25 @@
       <c r="A31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="10">
-        <v>99</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>99</v>
+      </c>
+      <c r="D31">
         <v>48.2634204838904</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31">
         <v>16.451625918740199</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="J31" s="1"/>
@@ -2133,23 +2177,25 @@
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="10">
-        <v>99</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>99</v>
+      </c>
+      <c r="D32">
         <v>48.215091449058001</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32">
         <v>16.385113644869399</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
@@ -2158,23 +2204,25 @@
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="10">
-        <v>99</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>99</v>
+      </c>
+      <c r="D33">
         <v>48.257602853521902</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33">
         <v>16.449641645714301</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
@@ -2183,23 +2231,25 @@
       <c r="A34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="10">
-        <v>99</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>99</v>
+      </c>
+      <c r="D34">
         <v>48.229227673623001</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34">
         <v>16.4113600875705</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34">
         <v>0</v>
       </c>
       <c r="J34" s="1"/>
@@ -2208,23 +2258,25 @@
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="10">
-        <v>99</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>99</v>
+      </c>
+      <c r="D35">
         <v>48.187145905485302</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35">
         <v>16.373613136637299</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
@@ -2233,23 +2285,25 @@
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="10">
-        <v>99</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>99</v>
+      </c>
+      <c r="D36">
         <v>48.250222543967702</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36">
         <v>16.443256524414501</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36">
         <v>0</v>
       </c>
       <c r="J36" s="1"/>
@@ -2258,23 +2312,25 @@
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="10">
-        <v>99</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>99</v>
+      </c>
+      <c r="D37">
         <v>48.242959213349003</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37">
         <v>16.432858206625799</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37">
         <v>0</v>
       </c>
       <c r="J37" s="1"/>
@@ -2283,23 +2339,25 @@
       <c r="A38" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="10">
-        <v>99</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+      <c r="D38">
         <v>48.174989952355297</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38">
         <v>16.377905052346598</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
@@ -2308,23 +2366,25 @@
       <c r="A39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="10">
-        <v>99</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>99</v>
+      </c>
+      <c r="D39">
         <v>48.211059149435798</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39">
         <v>16.311366713192299</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39">
         <v>0</v>
       </c>
       <c r="J39" s="1"/>
@@ -2333,23 +2393,25 @@
       <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="10">
-        <v>99</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+      <c r="D40">
         <v>48.153632091104797</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40">
         <v>16.3823650872299</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="J40" s="1"/>
@@ -2358,23 +2420,25 @@
       <c r="A41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="10">
-        <v>99</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>99</v>
+      </c>
+      <c r="D41">
         <v>48.161948857712801</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41">
         <v>16.3832292708537</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="J41" s="1"/>
@@ -2383,23 +2447,25 @@
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="10">
-        <v>99</v>
-      </c>
-      <c r="D42" s="10">
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>99</v>
+      </c>
+      <c r="D42">
         <v>48.142191451525598</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42">
         <v>16.400430201566301</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="J42" s="1"/>
@@ -2408,23 +2474,25 @@
       <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="10">
-        <v>99</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>99</v>
+      </c>
+      <c r="D43">
         <v>48.1691627655959</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43">
         <v>16.380315900921801</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="J43" s="1"/>
@@ -2433,23 +2501,25 @@
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="10">
-        <v>99</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44">
         <v>48.145589417483002</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44">
         <v>16.3865542933024</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="J44" s="1"/>
@@ -2458,23 +2528,25 @@
       <c r="A45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="10">
-        <v>99</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>99</v>
+      </c>
+      <c r="D45">
         <v>48.216775002793597</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45">
         <v>16.3418152487261</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45">
         <v>0</v>
       </c>
       <c r="J45" s="1"/>
@@ -2483,23 +2555,25 @@
       <c r="A46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="10">
-        <v>99</v>
-      </c>
-      <c r="D46" s="10">
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>99</v>
+      </c>
+      <c r="D46">
         <v>48.189412360620402</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46">
         <v>16.295803553490099</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46">
         <v>0</v>
       </c>
       <c r="J46" s="1"/>
@@ -2508,23 +2582,25 @@
       <c r="A47" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="10">
-        <v>99</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>99</v>
+      </c>
+      <c r="D47">
         <v>48.203365085364901</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47">
         <v>16.3371928934422</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47">
         <v>6</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47">
         <v>0</v>
       </c>
       <c r="J47" s="1"/>
@@ -2533,23 +2609,25 @@
       <c r="A48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="10">
-        <v>99</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>99</v>
+      </c>
+      <c r="D48">
         <v>48.191425114398697</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48">
         <v>16.4141405460595</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48">
         <v>3</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48">
         <v>0</v>
       </c>
       <c r="J48" s="1"/>
@@ -2558,23 +2636,25 @@
       <c r="A49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="10">
-        <v>99</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>99</v>
+      </c>
+      <c r="D49">
         <v>48.180439246243203</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49">
         <v>16.412065829472301</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49">
         <v>3</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49">
         <v>0</v>
       </c>
       <c r="J49" s="1"/>
@@ -2583,23 +2663,25 @@
       <c r="A50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="10">
-        <v>99</v>
-      </c>
-      <c r="D50" s="10">
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+      <c r="D50">
         <v>48.190867982179199</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50">
         <v>16.3375114209149</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50">
         <v>6</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50">
         <v>0</v>
       </c>
       <c r="J50" s="1"/>
@@ -2608,23 +2690,25 @@
       <c r="A51" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="10">
-        <v>99</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+      <c r="D51">
         <v>48.237255632164</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51">
         <v>16.380131011741501</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51">
         <v>6</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51">
         <v>0</v>
       </c>
       <c r="J51" s="1"/>
@@ -2633,23 +2717,25 @@
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="10">
-        <v>99</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>99</v>
+      </c>
+      <c r="D52">
         <v>48.2093447703745</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52">
         <v>16.365412433048899</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52">
         <v>0</v>
       </c>
       <c r="J52" s="1"/>
@@ -2658,23 +2744,25 @@
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="10">
-        <v>99</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>99</v>
+      </c>
+      <c r="D53">
         <v>48.187546651901897</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53">
         <v>16.305031084672301</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53">
         <v>4</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53">
         <v>0</v>
       </c>
       <c r="J53" s="1"/>
@@ -2683,23 +2771,25 @@
       <c r="A54" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="10">
-        <v>99</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>99</v>
+      </c>
+      <c r="D54">
         <v>48.197642239755503</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54">
         <v>16.320080048337701</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54">
         <v>3</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54">
         <v>0</v>
       </c>
       <c r="J54" s="1"/>
@@ -2708,23 +2798,25 @@
       <c r="A55" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="10">
-        <v>99</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>99</v>
+      </c>
+      <c r="D55">
         <v>48.211550222471303</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55">
         <v>16.339161406618999</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55">
         <v>6</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="J55" s="1"/>
@@ -2733,23 +2825,25 @@
       <c r="A56" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="10">
-        <v>99</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>99</v>
+      </c>
+      <c r="D56">
         <v>48.232861845873003</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56">
         <v>16.416496832133301</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="J56" s="1"/>
@@ -2758,23 +2852,25 @@
       <c r="A57" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="10">
-        <v>99</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>99</v>
+      </c>
+      <c r="D57">
         <v>48.197558621915299</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57">
         <v>16.399882982436001</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57">
         <v>3</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57">
         <v>0</v>
       </c>
       <c r="J57" s="1"/>
@@ -2783,23 +2879,25 @@
       <c r="A58" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="10">
-        <v>99</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+      <c r="D58">
         <v>48.200461908387297</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58">
         <v>16.368679459080099</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58">
         <v>4</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58">
         <v>0</v>
       </c>
       <c r="J58" s="1"/>
@@ -2808,23 +2906,25 @@
       <c r="A59" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="10">
-        <v>99</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>99</v>
+      </c>
+      <c r="D59">
         <v>48.179192090746</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59">
         <v>16.3761836340366</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59">
         <v>0</v>
       </c>
       <c r="J59" s="1"/>
@@ -2833,23 +2933,25 @@
       <c r="A60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="10">
-        <v>99</v>
-      </c>
-      <c r="D60" s="10">
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="D60">
         <v>48.196614938120703</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60">
         <v>16.357976518583701</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60">
         <v>4</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60">
         <v>0</v>
       </c>
       <c r="J60" s="1"/>
@@ -2858,23 +2960,25 @@
       <c r="A61" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="10">
-        <v>99</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="B61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>99</v>
+      </c>
+      <c r="D61">
         <v>48.1991725051343</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61">
         <v>16.3522751088353</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61">
         <v>3</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="J61" s="1"/>
@@ -2883,23 +2987,25 @@
       <c r="A62" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="10">
-        <v>99</v>
-      </c>
-      <c r="D62" s="10">
+      <c r="B62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>99</v>
+      </c>
+      <c r="D62">
         <v>48.206301017717301</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62">
         <v>16.3839158186181</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62">
         <v>3</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62">
         <v>0</v>
       </c>
       <c r="J62" s="1"/>
@@ -2908,23 +3014,25 @@
       <c r="A63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="10">
-        <v>99</v>
-      </c>
-      <c r="D63" s="10">
+      <c r="B63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>99</v>
+      </c>
+      <c r="D63">
         <v>48.221281121207802</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63">
         <v>16.344276994169501</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63">
         <v>6</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63">
         <v>0</v>
       </c>
       <c r="J63" s="1"/>
@@ -2933,23 +3041,25 @@
       <c r="A64" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="10">
-        <v>99</v>
-      </c>
-      <c r="D64" s="10">
+      <c r="B64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>99</v>
+      </c>
+      <c r="D64">
         <v>48.180776249100902</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64">
         <v>16.331180131750799</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64">
         <v>6</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64">
         <v>0</v>
       </c>
       <c r="J64" s="1"/>
@@ -2958,23 +3068,25 @@
       <c r="A65" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="10">
-        <v>99</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>99</v>
+      </c>
+      <c r="D65">
         <v>48.231323460580803</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65">
         <v>16.352435723682099</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65">
         <v>6</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="J65" s="1"/>
@@ -2983,23 +3095,25 @@
       <c r="A66" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="10">
-        <v>99</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="B66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>99</v>
+      </c>
+      <c r="D66">
         <v>48.192239540974803</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66">
         <v>16.276205909609502</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66">
         <v>4</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66">
         <v>0</v>
       </c>
       <c r="J66" s="1"/>
@@ -3008,23 +3122,25 @@
       <c r="A67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="10">
-        <v>99</v>
-      </c>
-      <c r="D67" s="10">
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>99</v>
+      </c>
+      <c r="D67">
         <v>48.136886078204199</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67">
         <v>16.313447385677701</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67">
         <v>6</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67">
         <v>0</v>
       </c>
       <c r="J67" s="1"/>
@@ -3033,23 +3149,25 @@
       <c r="A68" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="10">
-        <v>99</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="B68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>99</v>
+      </c>
+      <c r="D68">
         <v>48.174201770401297</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68">
         <v>16.3314961287012</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68">
         <v>6</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68">
         <v>0</v>
       </c>
       <c r="J68" s="1"/>
@@ -3058,23 +3176,25 @@
       <c r="A69" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="10">
-        <v>99</v>
-      </c>
-      <c r="D69" s="10">
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>99</v>
+      </c>
+      <c r="D69">
         <v>48.192031302903899</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69">
         <v>16.354241098311199</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69">
         <v>4</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69">
         <v>0</v>
       </c>
       <c r="J69" s="1"/>
@@ -3083,23 +3203,25 @@
       <c r="A70" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="10">
-        <v>99</v>
-      </c>
-      <c r="D70" s="10">
+      <c r="B70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70">
         <v>48.199796591292497</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70">
         <v>16.3113939494243</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70">
         <v>3</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70">
         <v>0</v>
       </c>
       <c r="J70" s="1"/>
@@ -3108,23 +3230,25 @@
       <c r="A71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="10">
-        <v>99</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="B71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>99</v>
+      </c>
+      <c r="D71">
         <v>48.218871301428003</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71">
         <v>16.391381828582801</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71">
         <v>0</v>
       </c>
       <c r="J71" s="1"/>
@@ -3133,23 +3257,25 @@
       <c r="A72" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="10">
-        <v>99</v>
-      </c>
-      <c r="D72" s="10">
+      <c r="B72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>99</v>
+      </c>
+      <c r="D72">
         <v>48.2356312778427</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72">
         <v>16.358433430790001</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72">
         <v>4</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72">
         <v>0</v>
       </c>
       <c r="J72" s="1"/>
@@ -3158,23 +3284,25 @@
       <c r="A73" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="10">
-        <v>99</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="B73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>99</v>
+      </c>
+      <c r="D73">
         <v>48.202085261385697</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73">
         <v>16.3922538196944</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73">
         <v>3</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73">
         <v>0</v>
       </c>
       <c r="J73" s="1"/>
@@ -3183,23 +3311,25 @@
       <c r="A74" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="10">
-        <v>99</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>99</v>
+      </c>
+      <c r="D74">
         <v>48.222256371270298</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74">
         <v>16.367568667360299</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74">
         <v>4</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74">
         <v>0</v>
       </c>
       <c r="J74" s="1"/>
@@ -3208,23 +3338,25 @@
       <c r="A75" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="10">
-        <v>99</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="B75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>99</v>
+      </c>
+      <c r="D75">
         <v>48.217146092964299</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75">
         <v>16.371244989355699</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75">
         <v>4</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75">
         <v>0</v>
       </c>
       <c r="J75" s="1"/>
@@ -3233,23 +3365,25 @@
       <c r="A76" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="10">
-        <v>99</v>
-      </c>
-      <c r="D76" s="10">
+      <c r="B76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>99</v>
+      </c>
+      <c r="D76">
         <v>48.211805714655902</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76">
         <v>16.3783661729078</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="J76" s="1"/>
@@ -3258,23 +3392,25 @@
       <c r="A77" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="10">
-        <v>99</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>99</v>
+      </c>
+      <c r="D77">
         <v>48.194414017458499</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77">
         <v>16.406748730417199</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77">
         <v>3</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77">
         <v>0</v>
       </c>
       <c r="J77" s="1"/>
@@ -3283,23 +3419,25 @@
       <c r="A78" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="10">
-        <v>99</v>
-      </c>
-      <c r="D78" s="10">
+      <c r="B78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>99</v>
+      </c>
+      <c r="D78">
         <v>48.197800812797901</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78">
         <v>16.328518689581301</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78">
         <v>3</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78">
         <v>0</v>
       </c>
       <c r="J78" s="1"/>
@@ -3308,23 +3446,25 @@
       <c r="A79" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="10">
-        <v>99</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="B79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>99</v>
+      </c>
+      <c r="D79">
         <v>48.202808579018303</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79">
         <v>16.379578467601899</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79">
         <v>4</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79">
         <v>0</v>
       </c>
       <c r="J79" s="1"/>
@@ -3333,23 +3473,25 @@
       <c r="A80" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="10">
-        <v>99</v>
-      </c>
-      <c r="D80" s="10">
+      <c r="B80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>99</v>
+      </c>
+      <c r="D80">
         <v>48.204540181864402</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80">
         <v>16.3091474289552</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80">
         <v>3</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="J80" s="1"/>
@@ -3358,23 +3500,25 @@
       <c r="A81" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="10">
-        <v>99</v>
-      </c>
-      <c r="D81" s="10">
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>99</v>
+      </c>
+      <c r="D81">
         <v>48.208046834199401</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81">
         <v>16.3715306120903</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81">
         <v>0</v>
       </c>
       <c r="J81" s="1"/>
@@ -3383,23 +3527,25 @@
       <c r="A82" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="10">
-        <v>99</v>
-      </c>
-      <c r="D82" s="10">
+      <c r="B82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>99</v>
+      </c>
+      <c r="D82">
         <v>48.193916076791602</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82">
         <v>16.370341054127302</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82">
         <v>1</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82">
         <v>0</v>
       </c>
       <c r="J82" s="1"/>
@@ -3408,23 +3554,25 @@
       <c r="A83" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="10">
-        <v>99</v>
-      </c>
-      <c r="D83" s="10">
+      <c r="B83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>99</v>
+      </c>
+      <c r="D83">
         <v>48.2078009691215</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83">
         <v>16.338015523652398</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83">
         <v>0</v>
       </c>
       <c r="J83" s="1"/>
@@ -3433,23 +3581,25 @@
       <c r="A84" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="10">
-        <v>99</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="B84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>99</v>
+      </c>
+      <c r="D84">
         <v>48.1648596901655</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84">
         <v>16.327668774911601</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G84">
         <v>6</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84">
         <v>0</v>
       </c>
       <c r="J84" s="1"/>
@@ -3458,23 +3608,25 @@
       <c r="A85" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="10">
-        <v>99</v>
-      </c>
-      <c r="D85" s="10">
+      <c r="B85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>99</v>
+      </c>
+      <c r="D85">
         <v>48.191127863278602</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85">
         <v>16.285948386992299</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85">
         <v>0</v>
       </c>
       <c r="J85" s="1"/>
@@ -3483,23 +3635,25 @@
       <c r="A86" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="10">
-        <v>99</v>
-      </c>
-      <c r="D86" s="10">
+      <c r="B86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>99</v>
+      </c>
+      <c r="D86">
         <v>48.204915658283099</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86">
         <v>16.3582601366227</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86">
         <v>3</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86">
         <v>0</v>
       </c>
       <c r="J86" s="1"/>
@@ -3508,23 +3662,25 @@
       <c r="A87" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="10">
-        <v>99</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>99</v>
+      </c>
+      <c r="D87">
         <v>48.2236292672643</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87">
         <v>16.401076559650701</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87">
         <v>1</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87">
         <v>0</v>
       </c>
       <c r="J87" s="1"/>
@@ -3533,23 +3689,25 @@
       <c r="A88" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="10">
-        <v>99</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="B88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>99</v>
+      </c>
+      <c r="D88">
         <v>48.195838255457602</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88">
         <v>16.3396016754645</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G88">
         <v>3</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88">
         <v>0</v>
       </c>
       <c r="J88" s="1"/>
@@ -3558,23 +3716,25 @@
       <c r="A89" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="10">
-        <v>99</v>
-      </c>
-      <c r="D89" s="10">
+      <c r="B89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>99</v>
+      </c>
+      <c r="D89">
         <v>48.150727425264598</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89">
         <v>16.316875926933299</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89">
         <v>6</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89">
         <v>0</v>
       </c>
       <c r="J89" s="1"/>
@@ -3583,23 +3743,25 @@
       <c r="A90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="10">
-        <v>99</v>
-      </c>
-      <c r="D90" s="10">
+      <c r="B90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>99</v>
+      </c>
+      <c r="D90">
         <v>48.225586839174298</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90">
         <v>16.349500070214798</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90">
         <v>0</v>
       </c>
       <c r="J90" s="1"/>
@@ -3608,23 +3770,25 @@
       <c r="A91" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="10">
-        <v>99</v>
-      </c>
-      <c r="D91" s="10">
+      <c r="B91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>99</v>
+      </c>
+      <c r="D91">
         <v>48.1970803711367</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91">
         <v>16.3459802174687</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91">
         <v>3</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91">
         <v>0</v>
       </c>
       <c r="J91" s="1"/>
@@ -3633,23 +3797,25 @@
       <c r="A92" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="10">
-        <v>99</v>
-      </c>
-      <c r="D92" s="10">
+      <c r="B92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>99</v>
+      </c>
+      <c r="D92">
         <v>48.214526571260997</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92">
         <v>16.361836178517599</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G92">
         <v>2</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92">
         <v>0</v>
       </c>
       <c r="J92" s="1"/>
@@ -3658,23 +3824,25 @@
       <c r="A93" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="10">
-        <v>99</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="B93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>99</v>
+      </c>
+      <c r="D93">
         <v>48.246405762873401</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93">
         <v>16.394834441936599</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G93">
         <v>6</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H93">
         <v>0</v>
       </c>
       <c r="J93" s="1"/>
@@ -3683,23 +3851,25 @@
       <c r="A94" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="10">
-        <v>99</v>
-      </c>
-      <c r="D94" s="10">
+      <c r="B94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>99</v>
+      </c>
+      <c r="D94">
         <v>48.241860535835002</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94">
         <v>16.385702894060199</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G94">
         <v>6</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94">
         <v>0</v>
       </c>
       <c r="J94" s="1"/>
@@ -3708,23 +3878,25 @@
       <c r="A95" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="10">
-        <v>99</v>
-      </c>
-      <c r="D95" s="10">
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>99</v>
+      </c>
+      <c r="D95">
         <v>48.185143015384497</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95">
         <v>16.417467121381801</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95">
         <v>3</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95">
         <v>0</v>
       </c>
       <c r="J95" s="1"/>
@@ -3733,23 +3905,25 @@
       <c r="A96" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="10">
-        <v>99</v>
-      </c>
-      <c r="D96" s="10">
+      <c r="B96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>99</v>
+      </c>
+      <c r="D96">
         <v>48.174718736083598</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96">
         <v>16.414796672573601</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G96">
         <v>3</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96">
         <v>0</v>
       </c>
       <c r="J96" s="1"/>
@@ -3758,23 +3932,25 @@
       <c r="A97" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="10">
-        <v>99</v>
-      </c>
-      <c r="D97" s="10">
+      <c r="B97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>99</v>
+      </c>
+      <c r="D97">
         <v>48.219130313111201</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97">
         <v>16.381291851267001</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97">
         <v>2</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97">
         <v>0</v>
       </c>
       <c r="J97" s="1"/>
@@ -3783,23 +3959,25 @@
       <c r="A98" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="10">
-        <v>99</v>
-      </c>
-      <c r="D98" s="10">
+      <c r="B98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>99</v>
+      </c>
+      <c r="D98">
         <v>48.1969570149733</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98">
         <v>16.260835508353701</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G98">
         <v>4</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98">
         <v>0</v>
       </c>
       <c r="J98" s="1"/>
@@ -3808,23 +3986,25 @@
       <c r="A99" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="10">
-        <v>99</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="B99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99">
         <v>48.188483960992599</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99">
         <v>16.342954397677602</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99">
         <v>4</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99">
         <v>0</v>
       </c>
       <c r="J99" s="1"/>
@@ -3833,23 +4013,25 @@
       <c r="A100" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="10">
-        <v>99</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="B100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
         <v>48.18604725454</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100">
         <v>16.3189556071334</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
       </c>
-      <c r="G100" s="12">
+      <c r="G100">
         <v>4</v>
       </c>
-      <c r="H100" s="12">
+      <c r="H100">
         <v>0</v>
       </c>
       <c r="J100" s="1"/>
@@ -3858,23 +4040,25 @@
       <c r="A101" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="10">
-        <v>99</v>
-      </c>
-      <c r="D101" s="10">
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
         <v>48.1607153820297</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101">
         <v>16.324229809458199</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101">
         <v>6</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101">
         <v>0</v>
       </c>
       <c r="J101" s="1"/>
@@ -3883,23 +4067,25 @@
       <c r="A102" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="10">
-        <v>99</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="B102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102">
         <v>48.206816355148803</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102">
         <v>16.3791309479708</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102">
         <v>3</v>
       </c>
-      <c r="H102" s="12">
+      <c r="H102">
         <v>0</v>
       </c>
       <c r="J102" s="1"/>
@@ -3908,23 +4094,25 @@
       <c r="A103" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="10">
-        <v>99</v>
-      </c>
-      <c r="D103" s="10">
+      <c r="B103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>99</v>
+      </c>
+      <c r="D103">
         <v>48.169649232274203</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103">
         <v>16.4207002221215</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103">
         <v>3</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103">
         <v>0</v>
       </c>
       <c r="J103" s="1"/>

--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146CCDA-C151-417D-A60F-09E1CE75C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3461B85-8463-40E0-8A8A-3CD55EED5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
   <si>
     <t>Bezirk</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Simmering</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/259/5cfc97c24a06487db54aa01c2ed56ea6/big-webp/wiedner-hauptstrasse-.webp</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
   </si>
 </sst>
 </file>
@@ -838,7 +844,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -883,8 +889,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -894,8 +902,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="25" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="29" builtinId="38" customBuiltin="1"/>
@@ -938,6 +948,8 @@
     <cellStyle name="Überschrift 4" xfId="7" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Verknüpfte Zelle" xfId="14" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Währung 2" xfId="44" xr:uid="{0FA06D57-3AB8-4D17-B41B-D461B5B18408}"/>
+    <cellStyle name="Währung 3" xfId="45" xr:uid="{5F3FB055-4102-442A-8B4B-1E23324B74A7}"/>
     <cellStyle name="Warnender Text" xfId="16" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="15" builtinId="23" customBuiltin="1"/>
   </cellStyles>
@@ -1007,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J103" totalsRowShown="0">
-  <autoFilter ref="A1:J103" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J104" totalsRowShown="0">
+  <autoFilter ref="A1:J104" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -1288,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B103"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,35 +1538,40 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45170</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>48.183644993163902</v>
+        <v>48.191374732872603</v>
       </c>
       <c r="E8">
-        <v>16.327764778217102</v>
+        <v>16.369702441589901</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>990</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1563,10 +1580,10 @@
         <v>99</v>
       </c>
       <c r="D9">
-        <v>48.227767239604397</v>
+        <v>48.183644993163902</v>
       </c>
       <c r="E9">
-        <v>16.364011620482898</v>
+        <v>16.327764778217102</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1581,7 +1598,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1590,10 +1607,10 @@
         <v>99</v>
       </c>
       <c r="D10">
-        <v>48.248451460447001</v>
+        <v>48.227767239604397</v>
       </c>
       <c r="E10">
-        <v>16.365810794397799</v>
+        <v>16.364011620482898</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -1608,7 +1625,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1617,16 +1634,16 @@
         <v>99</v>
       </c>
       <c r="D11">
-        <v>48.1848015142332</v>
+        <v>48.248451460447001</v>
       </c>
       <c r="E11">
-        <v>16.334943316802502</v>
+        <v>16.365810794397799</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1635,7 +1652,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1644,10 +1661,10 @@
         <v>99</v>
       </c>
       <c r="D12">
-        <v>48.130515204099098</v>
+        <v>48.1848015142332</v>
       </c>
       <c r="E12">
-        <v>16.3098375340189</v>
+        <v>16.334943316802502</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1662,7 +1679,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -1671,10 +1688,10 @@
         <v>99</v>
       </c>
       <c r="D13">
-        <v>48.235217131100498</v>
+        <v>48.130515204099098</v>
       </c>
       <c r="E13">
-        <v>16.368636832930299</v>
+        <v>16.3098375340189</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1689,7 +1706,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -1698,10 +1715,10 @@
         <v>99</v>
       </c>
       <c r="D14">
-        <v>48.141921600787903</v>
+        <v>48.235217131100498</v>
       </c>
       <c r="E14">
-        <v>16.316531068234401</v>
+        <v>16.368636832930299</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1716,7 +1733,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1725,10 +1742,10 @@
         <v>99</v>
       </c>
       <c r="D15">
-        <v>48.256204731052698</v>
+        <v>48.141921600787903</v>
       </c>
       <c r="E15">
-        <v>16.400442533397499</v>
+        <v>16.316531068234401</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1743,7 +1760,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1752,16 +1769,16 @@
         <v>99</v>
       </c>
       <c r="D16">
-        <v>48.226254178910303</v>
+        <v>48.256204731052698</v>
       </c>
       <c r="E16">
-        <v>16.508438129988999</v>
+        <v>16.400442533397499</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1770,7 +1787,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -1779,10 +1796,10 @@
         <v>99</v>
       </c>
       <c r="D17">
-        <v>48.219817359097704</v>
+        <v>48.226254178910303</v>
       </c>
       <c r="E17">
-        <v>16.449662667515199</v>
+        <v>16.508438129988999</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -1797,7 +1814,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1806,10 +1823,10 @@
         <v>99</v>
       </c>
       <c r="D18">
-        <v>48.233409768503201</v>
+        <v>48.219817359097704</v>
       </c>
       <c r="E18">
-        <v>16.485772626975599</v>
+        <v>16.449662667515199</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -1824,7 +1841,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -1833,10 +1850,10 @@
         <v>99</v>
       </c>
       <c r="D19">
-        <v>48.222523966125998</v>
+        <v>48.233409768503201</v>
       </c>
       <c r="E19">
-        <v>16.474871718755502</v>
+        <v>16.485772626975599</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -1851,7 +1868,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1860,10 +1877,10 @@
         <v>99</v>
       </c>
       <c r="D20">
-        <v>48.219419110545097</v>
+        <v>48.222523966125998</v>
       </c>
       <c r="E20">
-        <v>16.466612161098698</v>
+        <v>16.474871718755502</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -1878,7 +1895,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -1887,10 +1904,10 @@
         <v>99</v>
       </c>
       <c r="D21">
-        <v>48.220896078368298</v>
+        <v>48.219419110545097</v>
       </c>
       <c r="E21">
-        <v>16.457749951315201</v>
+        <v>16.466612161098698</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -1905,7 +1922,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1914,10 +1931,10 @@
         <v>99</v>
       </c>
       <c r="D22">
-        <v>48.211768603479896</v>
+        <v>48.220896078368298</v>
       </c>
       <c r="E22">
-        <v>16.440125089908801</v>
+        <v>16.457749951315201</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -1932,7 +1949,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1941,10 +1958,10 @@
         <v>99</v>
       </c>
       <c r="D23">
-        <v>48.2345079150533</v>
+        <v>48.211768603479896</v>
       </c>
       <c r="E23">
-        <v>16.5044937908843</v>
+        <v>16.440125089908801</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -1959,7 +1976,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
@@ -1968,10 +1985,10 @@
         <v>99</v>
       </c>
       <c r="D24">
-        <v>48.2064650265471</v>
+        <v>48.2345079150533</v>
       </c>
       <c r="E24">
-        <v>16.431617486203798</v>
+        <v>16.5044937908843</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -1986,7 +2003,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -1995,10 +2012,10 @@
         <v>99</v>
       </c>
       <c r="D25">
-        <v>48.210671402885502</v>
+        <v>48.2064650265471</v>
       </c>
       <c r="E25">
-        <v>16.420255255579601</v>
+        <v>16.431617486203798</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -2013,7 +2030,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -2022,10 +2039,10 @@
         <v>99</v>
       </c>
       <c r="D26">
-        <v>48.214686271632097</v>
+        <v>48.210671402885502</v>
       </c>
       <c r="E26">
-        <v>16.413752066012002</v>
+        <v>16.420255255579601</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2040,7 +2057,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
@@ -2049,10 +2066,10 @@
         <v>99</v>
       </c>
       <c r="D27">
-        <v>48.217792010671999</v>
+        <v>48.214686271632097</v>
       </c>
       <c r="E27">
-        <v>16.404963120853299</v>
+        <v>16.413752066012002</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2067,7 +2084,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
@@ -2076,16 +2093,16 @@
         <v>99</v>
       </c>
       <c r="D28">
-        <v>48.277517865692502</v>
+        <v>48.217792010671999</v>
       </c>
       <c r="E28">
-        <v>16.452139552735201</v>
+        <v>16.404963120853299</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2094,7 +2111,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
@@ -2103,10 +2120,10 @@
         <v>99</v>
       </c>
       <c r="D29">
-        <v>48.271010765636902</v>
+        <v>48.277517865692502</v>
       </c>
       <c r="E29">
-        <v>16.4478823771306</v>
+        <v>16.452139552735201</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2121,7 +2138,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
@@ -2130,10 +2147,10 @@
         <v>99</v>
       </c>
       <c r="D30">
-        <v>48.238337984732603</v>
+        <v>48.271010765636902</v>
       </c>
       <c r="E30">
-        <v>16.424901236767599</v>
+        <v>16.4478823771306</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -2148,7 +2165,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -2157,10 +2174,10 @@
         <v>99</v>
       </c>
       <c r="D31">
-        <v>48.2634204838904</v>
+        <v>48.238337984732603</v>
       </c>
       <c r="E31">
-        <v>16.451625918740199</v>
+        <v>16.424901236767599</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
@@ -2175,7 +2192,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -2184,10 +2201,10 @@
         <v>99</v>
       </c>
       <c r="D32">
-        <v>48.215091449058001</v>
+        <v>48.2634204838904</v>
       </c>
       <c r="E32">
-        <v>16.385113644869399</v>
+        <v>16.451625918740199</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
@@ -2202,7 +2219,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
@@ -2211,10 +2228,10 @@
         <v>99</v>
       </c>
       <c r="D33">
-        <v>48.257602853521902</v>
+        <v>48.215091449058001</v>
       </c>
       <c r="E33">
-        <v>16.449641645714301</v>
+        <v>16.385113644869399</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
@@ -2229,7 +2246,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
@@ -2238,10 +2255,10 @@
         <v>99</v>
       </c>
       <c r="D34">
-        <v>48.229227673623001</v>
+        <v>48.257602853521902</v>
       </c>
       <c r="E34">
-        <v>16.4113600875705</v>
+        <v>16.449641645714301</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -2256,7 +2273,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -2265,10 +2282,10 @@
         <v>99</v>
       </c>
       <c r="D35">
-        <v>48.187145905485302</v>
+        <v>48.229227673623001</v>
       </c>
       <c r="E35">
-        <v>16.373613136637299</v>
+        <v>16.4113600875705</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -2283,7 +2300,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -2292,10 +2309,10 @@
         <v>99</v>
       </c>
       <c r="D36">
-        <v>48.250222543967702</v>
+        <v>48.187145905485302</v>
       </c>
       <c r="E36">
-        <v>16.443256524414501</v>
+        <v>16.373613136637299</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -2310,7 +2327,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -2319,10 +2336,10 @@
         <v>99</v>
       </c>
       <c r="D37">
-        <v>48.242959213349003</v>
+        <v>48.250222543967702</v>
       </c>
       <c r="E37">
-        <v>16.432858206625799</v>
+        <v>16.443256524414501</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2337,7 +2354,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
@@ -2346,10 +2363,10 @@
         <v>99</v>
       </c>
       <c r="D38">
-        <v>48.174989952355297</v>
+        <v>48.242959213349003</v>
       </c>
       <c r="E38">
-        <v>16.377905052346598</v>
+        <v>16.432858206625799</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2364,7 +2381,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
@@ -2373,16 +2390,16 @@
         <v>99</v>
       </c>
       <c r="D39">
-        <v>48.211059149435798</v>
+        <v>48.174989952355297</v>
       </c>
       <c r="E39">
-        <v>16.311366713192299</v>
+        <v>16.377905052346598</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2391,7 +2408,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
@@ -2400,16 +2417,16 @@
         <v>99</v>
       </c>
       <c r="D40">
-        <v>48.153632091104797</v>
+        <v>48.211059149435798</v>
       </c>
       <c r="E40">
-        <v>16.3823650872299</v>
+        <v>16.311366713192299</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2418,7 +2435,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
@@ -2427,10 +2444,10 @@
         <v>99</v>
       </c>
       <c r="D41">
-        <v>48.161948857712801</v>
+        <v>48.153632091104797</v>
       </c>
       <c r="E41">
-        <v>16.3832292708537</v>
+        <v>16.3823650872299</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -2445,7 +2462,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
@@ -2454,10 +2471,10 @@
         <v>99</v>
       </c>
       <c r="D42">
-        <v>48.142191451525598</v>
+        <v>48.161948857712801</v>
       </c>
       <c r="E42">
-        <v>16.400430201566301</v>
+        <v>16.3832292708537</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2472,7 +2489,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
@@ -2481,10 +2498,10 @@
         <v>99</v>
       </c>
       <c r="D43">
-        <v>48.1691627655959</v>
+        <v>48.142191451525598</v>
       </c>
       <c r="E43">
-        <v>16.380315900921801</v>
+        <v>16.400430201566301</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
@@ -2499,7 +2516,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>7</v>
@@ -2508,10 +2525,10 @@
         <v>99</v>
       </c>
       <c r="D44">
-        <v>48.145589417483002</v>
+        <v>48.1691627655959</v>
       </c>
       <c r="E44">
-        <v>16.3865542933024</v>
+        <v>16.380315900921801</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2526,7 +2543,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>7</v>
@@ -2535,16 +2552,16 @@
         <v>99</v>
       </c>
       <c r="D45">
-        <v>48.216775002793597</v>
+        <v>48.145589417483002</v>
       </c>
       <c r="E45">
-        <v>16.3418152487261</v>
+        <v>16.3865542933024</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2553,7 +2570,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
@@ -2562,16 +2579,16 @@
         <v>99</v>
       </c>
       <c r="D46">
-        <v>48.189412360620402</v>
+        <v>48.216775002793597</v>
       </c>
       <c r="E46">
-        <v>16.295803553490099</v>
+        <v>16.3418152487261</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2580,7 +2597,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
@@ -2589,16 +2606,16 @@
         <v>99</v>
       </c>
       <c r="D47">
-        <v>48.203365085364901</v>
+        <v>48.189412360620402</v>
       </c>
       <c r="E47">
-        <v>16.3371928934422</v>
+        <v>16.295803553490099</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2607,7 +2624,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
@@ -2616,16 +2633,16 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>48.191425114398697</v>
+        <v>48.203365085364901</v>
       </c>
       <c r="E48">
-        <v>16.4141405460595</v>
+        <v>16.3371928934422</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2634,7 +2651,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>7</v>
@@ -2643,10 +2660,10 @@
         <v>99</v>
       </c>
       <c r="D49">
-        <v>48.180439246243203</v>
+        <v>48.191425114398697</v>
       </c>
       <c r="E49">
-        <v>16.412065829472301</v>
+        <v>16.4141405460595</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -2661,7 +2678,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>7</v>
@@ -2670,16 +2687,16 @@
         <v>99</v>
       </c>
       <c r="D50">
-        <v>48.190867982179199</v>
+        <v>48.180439246243203</v>
       </c>
       <c r="E50">
-        <v>16.3375114209149</v>
+        <v>16.412065829472301</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2688,7 +2705,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>7</v>
@@ -2697,10 +2714,10 @@
         <v>99</v>
       </c>
       <c r="D51">
-        <v>48.237255632164</v>
+        <v>48.190867982179199</v>
       </c>
       <c r="E51">
-        <v>16.380131011741501</v>
+        <v>16.3375114209149</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2715,7 +2732,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>7</v>
@@ -2724,16 +2741,16 @@
         <v>99</v>
       </c>
       <c r="D52">
-        <v>48.2093447703745</v>
+        <v>48.237255632164</v>
       </c>
       <c r="E52">
-        <v>16.365412433048899</v>
+        <v>16.380131011741501</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2742,7 +2759,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>7</v>
@@ -2751,16 +2768,16 @@
         <v>99</v>
       </c>
       <c r="D53">
-        <v>48.187546651901897</v>
+        <v>48.2093447703745</v>
       </c>
       <c r="E53">
-        <v>16.305031084672301</v>
+        <v>16.365412433048899</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2769,7 +2786,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>7</v>
@@ -2778,16 +2795,16 @@
         <v>99</v>
       </c>
       <c r="D54">
-        <v>48.197642239755503</v>
+        <v>48.187546651901897</v>
       </c>
       <c r="E54">
-        <v>16.320080048337701</v>
+        <v>16.305031084672301</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2796,7 +2813,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>7</v>
@@ -2805,16 +2822,16 @@
         <v>99</v>
       </c>
       <c r="D55">
-        <v>48.211550222471303</v>
+        <v>48.197642239755503</v>
       </c>
       <c r="E55">
-        <v>16.339161406618999</v>
+        <v>16.320080048337701</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2823,7 +2840,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
@@ -2832,16 +2849,16 @@
         <v>99</v>
       </c>
       <c r="D56">
-        <v>48.232861845873003</v>
+        <v>48.211550222471303</v>
       </c>
       <c r="E56">
-        <v>16.416496832133301</v>
+        <v>16.339161406618999</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2850,7 +2867,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>7</v>
@@ -2859,16 +2876,16 @@
         <v>99</v>
       </c>
       <c r="D57">
-        <v>48.197558621915299</v>
+        <v>48.232861845873003</v>
       </c>
       <c r="E57">
-        <v>16.399882982436001</v>
+        <v>16.416496832133301</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2877,7 +2894,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>7</v>
@@ -2886,16 +2903,16 @@
         <v>99</v>
       </c>
       <c r="D58">
-        <v>48.200461908387297</v>
+        <v>48.197558621915299</v>
       </c>
       <c r="E58">
-        <v>16.368679459080099</v>
+        <v>16.399882982436001</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2904,7 +2921,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
@@ -2913,16 +2930,16 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>48.179192090746</v>
+        <v>48.200461908387297</v>
       </c>
       <c r="E59">
-        <v>16.3761836340366</v>
+        <v>16.368679459080099</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2931,7 +2948,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
@@ -2940,16 +2957,16 @@
         <v>99</v>
       </c>
       <c r="D60">
-        <v>48.196614938120703</v>
+        <v>48.179192090746</v>
       </c>
       <c r="E60">
-        <v>16.357976518583701</v>
+        <v>16.3761836340366</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2958,7 +2975,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
@@ -2967,16 +2984,16 @@
         <v>99</v>
       </c>
       <c r="D61">
-        <v>48.1991725051343</v>
+        <v>48.196614938120703</v>
       </c>
       <c r="E61">
-        <v>16.3522751088353</v>
+        <v>16.357976518583701</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2985,7 +3002,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
@@ -2994,10 +3011,10 @@
         <v>99</v>
       </c>
       <c r="D62">
-        <v>48.206301017717301</v>
+        <v>48.1991725051343</v>
       </c>
       <c r="E62">
-        <v>16.3839158186181</v>
+        <v>16.3522751088353</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
@@ -3012,7 +3029,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
@@ -3021,16 +3038,16 @@
         <v>99</v>
       </c>
       <c r="D63">
-        <v>48.221281121207802</v>
+        <v>48.206301017717301</v>
       </c>
       <c r="E63">
-        <v>16.344276994169501</v>
+        <v>16.3839158186181</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3039,7 +3056,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
@@ -3048,10 +3065,10 @@
         <v>99</v>
       </c>
       <c r="D64">
-        <v>48.180776249100902</v>
+        <v>48.221281121207802</v>
       </c>
       <c r="E64">
-        <v>16.331180131750799</v>
+        <v>16.344276994169501</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
@@ -3066,7 +3083,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
@@ -3075,10 +3092,10 @@
         <v>99</v>
       </c>
       <c r="D65">
-        <v>48.231323460580803</v>
+        <v>48.180776249100902</v>
       </c>
       <c r="E65">
-        <v>16.352435723682099</v>
+        <v>16.331180131750799</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
@@ -3093,7 +3110,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
@@ -3102,16 +3119,16 @@
         <v>99</v>
       </c>
       <c r="D66">
-        <v>48.192239540974803</v>
+        <v>48.231323460580803</v>
       </c>
       <c r="E66">
-        <v>16.276205909609502</v>
+        <v>16.352435723682099</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3120,7 +3137,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
@@ -3129,16 +3146,16 @@
         <v>99</v>
       </c>
       <c r="D67">
-        <v>48.136886078204199</v>
+        <v>48.192239540974803</v>
       </c>
       <c r="E67">
-        <v>16.313447385677701</v>
+        <v>16.276205909609502</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3147,7 +3164,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
@@ -3156,10 +3173,10 @@
         <v>99</v>
       </c>
       <c r="D68">
-        <v>48.174201770401297</v>
+        <v>48.136886078204199</v>
       </c>
       <c r="E68">
-        <v>16.3314961287012</v>
+        <v>16.313447385677701</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -3174,7 +3191,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -3183,16 +3200,16 @@
         <v>99</v>
       </c>
       <c r="D69">
-        <v>48.192031302903899</v>
+        <v>48.174201770401297</v>
       </c>
       <c r="E69">
-        <v>16.354241098311199</v>
+        <v>16.3314961287012</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3201,7 +3218,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
@@ -3210,16 +3227,16 @@
         <v>99</v>
       </c>
       <c r="D70">
-        <v>48.199796591292497</v>
+        <v>48.192031302903899</v>
       </c>
       <c r="E70">
-        <v>16.3113939494243</v>
+        <v>16.354241098311199</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3228,7 +3245,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
@@ -3237,16 +3254,16 @@
         <v>99</v>
       </c>
       <c r="D71">
-        <v>48.218871301428003</v>
+        <v>48.199796591292497</v>
       </c>
       <c r="E71">
-        <v>16.391381828582801</v>
+        <v>16.3113939494243</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3255,7 +3272,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
@@ -3264,16 +3281,16 @@
         <v>99</v>
       </c>
       <c r="D72">
-        <v>48.2356312778427</v>
+        <v>48.218871301428003</v>
       </c>
       <c r="E72">
-        <v>16.358433430790001</v>
+        <v>16.391381828582801</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3282,7 +3299,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
@@ -3291,16 +3308,16 @@
         <v>99</v>
       </c>
       <c r="D73">
-        <v>48.202085261385697</v>
+        <v>48.2356312778427</v>
       </c>
       <c r="E73">
-        <v>16.3922538196944</v>
+        <v>16.358433430790001</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3309,7 +3326,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -3318,16 +3335,16 @@
         <v>99</v>
       </c>
       <c r="D74">
-        <v>48.222256371270298</v>
+        <v>48.202085261385697</v>
       </c>
       <c r="E74">
-        <v>16.367568667360299</v>
+        <v>16.3922538196944</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3336,7 +3353,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -3345,10 +3362,10 @@
         <v>99</v>
       </c>
       <c r="D75">
-        <v>48.217146092964299</v>
+        <v>48.222256371270298</v>
       </c>
       <c r="E75">
-        <v>16.371244989355699</v>
+        <v>16.367568667360299</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
@@ -3363,7 +3380,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
@@ -3372,16 +3389,16 @@
         <v>99</v>
       </c>
       <c r="D76">
-        <v>48.211805714655902</v>
+        <v>48.217146092964299</v>
       </c>
       <c r="E76">
-        <v>16.3783661729078</v>
+        <v>16.371244989355699</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3390,7 +3407,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
@@ -3399,16 +3416,16 @@
         <v>99</v>
       </c>
       <c r="D77">
-        <v>48.194414017458499</v>
+        <v>48.211805714655902</v>
       </c>
       <c r="E77">
-        <v>16.406748730417199</v>
+        <v>16.3783661729078</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3417,7 +3434,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
@@ -3426,10 +3443,10 @@
         <v>99</v>
       </c>
       <c r="D78">
-        <v>48.197800812797901</v>
+        <v>48.194414017458499</v>
       </c>
       <c r="E78">
-        <v>16.328518689581301</v>
+        <v>16.406748730417199</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -3444,7 +3461,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
@@ -3453,16 +3470,16 @@
         <v>99</v>
       </c>
       <c r="D79">
-        <v>48.202808579018303</v>
+        <v>48.197800812797901</v>
       </c>
       <c r="E79">
-        <v>16.379578467601899</v>
+        <v>16.328518689581301</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3471,7 +3488,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
@@ -3480,16 +3497,16 @@
         <v>99</v>
       </c>
       <c r="D80">
-        <v>48.204540181864402</v>
+        <v>48.202808579018303</v>
       </c>
       <c r="E80">
-        <v>16.3091474289552</v>
+        <v>16.379578467601899</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3498,7 +3515,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -3507,16 +3524,16 @@
         <v>99</v>
       </c>
       <c r="D81">
-        <v>48.208046834199401</v>
+        <v>48.204540181864402</v>
       </c>
       <c r="E81">
-        <v>16.3715306120903</v>
+        <v>16.3091474289552</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3525,7 +3542,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
@@ -3534,10 +3551,10 @@
         <v>99</v>
       </c>
       <c r="D82">
-        <v>48.193916076791602</v>
+        <v>48.208046834199401</v>
       </c>
       <c r="E82">
-        <v>16.370341054127302</v>
+        <v>16.3715306120903</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -3552,7 +3569,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
@@ -3561,16 +3578,16 @@
         <v>99</v>
       </c>
       <c r="D83">
-        <v>48.2078009691215</v>
+        <v>48.193916076791602</v>
       </c>
       <c r="E83">
-        <v>16.338015523652398</v>
+        <v>16.370341054127302</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3579,7 +3596,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -3588,10 +3605,10 @@
         <v>99</v>
       </c>
       <c r="D84">
-        <v>48.1648596901655</v>
+        <v>48.2078009691215</v>
       </c>
       <c r="E84">
-        <v>16.327668774911601</v>
+        <v>16.338015523652398</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
@@ -3606,7 +3623,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
@@ -3615,16 +3632,16 @@
         <v>99</v>
       </c>
       <c r="D85">
-        <v>48.191127863278602</v>
+        <v>48.1648596901655</v>
       </c>
       <c r="E85">
-        <v>16.285948386992299</v>
+        <v>16.327668774911601</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3633,7 +3650,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>7</v>
@@ -3642,16 +3659,16 @@
         <v>99</v>
       </c>
       <c r="D86">
-        <v>48.204915658283099</v>
+        <v>48.191127863278602</v>
       </c>
       <c r="E86">
-        <v>16.3582601366227</v>
+        <v>16.285948386992299</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3660,7 +3677,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
@@ -3669,16 +3686,16 @@
         <v>99</v>
       </c>
       <c r="D87">
-        <v>48.2236292672643</v>
+        <v>48.204915658283099</v>
       </c>
       <c r="E87">
-        <v>16.401076559650701</v>
+        <v>16.3582601366227</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3687,7 +3704,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -3696,16 +3713,16 @@
         <v>99</v>
       </c>
       <c r="D88">
-        <v>48.195838255457602</v>
+        <v>48.2236292672643</v>
       </c>
       <c r="E88">
-        <v>16.3396016754645</v>
+        <v>16.401076559650701</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3714,7 +3731,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
@@ -3723,16 +3740,16 @@
         <v>99</v>
       </c>
       <c r="D89">
-        <v>48.150727425264598</v>
+        <v>48.195838255457602</v>
       </c>
       <c r="E89">
-        <v>16.316875926933299</v>
+        <v>16.3396016754645</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3741,7 +3758,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>7</v>
@@ -3750,10 +3767,10 @@
         <v>99</v>
       </c>
       <c r="D90">
-        <v>48.225586839174298</v>
+        <v>48.150727425264598</v>
       </c>
       <c r="E90">
-        <v>16.349500070214798</v>
+        <v>16.316875926933299</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
@@ -3768,7 +3785,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
@@ -3777,16 +3794,16 @@
         <v>99</v>
       </c>
       <c r="D91">
-        <v>48.1970803711367</v>
+        <v>48.225586839174298</v>
       </c>
       <c r="E91">
-        <v>16.3459802174687</v>
+        <v>16.349500070214798</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3795,7 +3812,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -3804,16 +3821,16 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>48.214526571260997</v>
+        <v>48.1970803711367</v>
       </c>
       <c r="E92">
-        <v>16.361836178517599</v>
+        <v>16.3459802174687</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3822,7 +3839,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
@@ -3831,16 +3848,16 @@
         <v>99</v>
       </c>
       <c r="D93">
-        <v>48.246405762873401</v>
+        <v>48.214526571260997</v>
       </c>
       <c r="E93">
-        <v>16.394834441936599</v>
+        <v>16.361836178517599</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3849,7 +3866,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>7</v>
@@ -3858,10 +3875,10 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>48.241860535835002</v>
+        <v>48.246405762873401</v>
       </c>
       <c r="E94">
-        <v>16.385702894060199</v>
+        <v>16.394834441936599</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -3876,7 +3893,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
@@ -3885,16 +3902,16 @@
         <v>99</v>
       </c>
       <c r="D95">
-        <v>48.185143015384497</v>
+        <v>48.241860535835002</v>
       </c>
       <c r="E95">
-        <v>16.417467121381801</v>
+        <v>16.385702894060199</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3903,7 +3920,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
@@ -3912,10 +3929,10 @@
         <v>99</v>
       </c>
       <c r="D96">
-        <v>48.174718736083598</v>
+        <v>48.185143015384497</v>
       </c>
       <c r="E96">
-        <v>16.414796672573601</v>
+        <v>16.417467121381801</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
@@ -3930,7 +3947,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
@@ -3939,16 +3956,16 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>48.219130313111201</v>
+        <v>48.174718736083598</v>
       </c>
       <c r="E97">
-        <v>16.381291851267001</v>
+        <v>16.414796672573601</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3957,7 +3974,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
@@ -3966,16 +3983,16 @@
         <v>99</v>
       </c>
       <c r="D98">
-        <v>48.1969570149733</v>
+        <v>48.219130313111201</v>
       </c>
       <c r="E98">
-        <v>16.260835508353701</v>
+        <v>16.381291851267001</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3984,7 +4001,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -3993,10 +4010,10 @@
         <v>99</v>
       </c>
       <c r="D99">
-        <v>48.188483960992599</v>
+        <v>48.1969570149733</v>
       </c>
       <c r="E99">
-        <v>16.342954397677602</v>
+        <v>16.260835508353701</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
@@ -4011,7 +4028,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>7</v>
@@ -4020,10 +4037,10 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>48.18604725454</v>
+        <v>48.188483960992599</v>
       </c>
       <c r="E100">
-        <v>16.3189556071334</v>
+        <v>16.342954397677602</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
@@ -4038,7 +4055,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
@@ -4047,16 +4064,16 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>48.1607153820297</v>
+        <v>48.18604725454</v>
       </c>
       <c r="E101">
-        <v>16.324229809458199</v>
+        <v>16.3189556071334</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4065,7 +4082,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
@@ -4074,16 +4091,16 @@
         <v>99</v>
       </c>
       <c r="D102">
-        <v>48.206816355148803</v>
+        <v>48.1607153820297</v>
       </c>
       <c r="E102">
-        <v>16.3791309479708</v>
+        <v>16.324229809458199</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4092,7 +4109,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
@@ -4101,10 +4118,10 @@
         <v>99</v>
       </c>
       <c r="D103">
-        <v>48.169649232274203</v>
+        <v>48.206816355148803</v>
       </c>
       <c r="E103">
-        <v>16.4207002221215</v>
+        <v>16.3791309479708</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
@@ -4116,6 +4133,33 @@
         <v>0</v>
       </c>
       <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>99</v>
+      </c>
+      <c r="D104">
+        <v>48.169649232274203</v>
+      </c>
+      <c r="E104">
+        <v>16.4207002221215</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4130,10 +4174,11 @@
     <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{37F5FE2C-4372-4EA0-94D0-B9782456EAE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3461B85-8463-40E0-8A8A-3CD55EED5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8727A-B65F-4380-9050-4A81E370DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>Bezirk</t>
   </si>
@@ -388,6 +388,24 @@
   </si>
   <si>
     <t>https://www.dibeo.at/expose/bri-immobilien/w-miete-miete/wie/1040/bis90m2/1496772/acvblr</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/753/709ef511ce804a24829520ba33376dda/big-webp/modern-ausgestattete.webp</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/sulek/w-miete-miete/wie/1050/bis120m2/1495069/acvblr</t>
+  </si>
+  <si>
+    <t>https://img.wg-gesucht.de/media/up/2023/30/968fa1c801b0d0b0aee71849961e7b7ed4ac84a04d055b4ec819b5057a8e07a0_082c6b95_3822_4ce5_9258_47093d19bade.sized.JPG</t>
+  </si>
+  <si>
+    <t>https://www.wg-gesucht.de/10309597.html</t>
+  </si>
+  <si>
+    <t>https://asset.dibeo.at/467/83754b3583a04836848fc2b0831bdaa4/big-webp/wohnzimmer.webp</t>
+  </si>
+  <si>
+    <t>https://www.dibeo.at/expose/imv/w-miete-miete/wie/1030/bis90m2/1507045/acvblr</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1037,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J104" totalsRowShown="0">
-  <autoFilter ref="A1:J104" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J107" totalsRowShown="0">
+  <autoFilter ref="A1:J107" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -1300,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,89 +1588,104 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45170</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>48.183644993163902</v>
+        <v>48.1857062785569</v>
       </c>
       <c r="E9">
-        <v>16.327764778217102</v>
+        <v>16.3527917208906</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45200</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>48.227767239604397</v>
+        <v>48.190726994588204</v>
       </c>
       <c r="E10">
-        <v>16.364011620482898</v>
+        <v>16.326481199566999</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1053</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45200</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>48.248451460447001</v>
+        <v>48.201588356949202</v>
       </c>
       <c r="E11">
-        <v>16.365810794397799</v>
+        <v>16.390848359916099</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1661,16 +1694,16 @@
         <v>99</v>
       </c>
       <c r="D12">
-        <v>48.1848015142332</v>
+        <v>48.183644993163902</v>
       </c>
       <c r="E12">
-        <v>16.334943316802502</v>
+        <v>16.327764778217102</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1679,7 +1712,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -1688,16 +1721,16 @@
         <v>99</v>
       </c>
       <c r="D13">
-        <v>48.130515204099098</v>
+        <v>48.227767239604397</v>
       </c>
       <c r="E13">
-        <v>16.3098375340189</v>
+        <v>16.364011620482898</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1706,7 +1739,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -1715,16 +1748,16 @@
         <v>99</v>
       </c>
       <c r="D14">
-        <v>48.235217131100498</v>
+        <v>48.248451460447001</v>
       </c>
       <c r="E14">
-        <v>16.368636832930299</v>
+        <v>16.365810794397799</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1733,7 +1766,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1742,10 +1775,10 @@
         <v>99</v>
       </c>
       <c r="D15">
-        <v>48.141921600787903</v>
+        <v>48.1848015142332</v>
       </c>
       <c r="E15">
-        <v>16.316531068234401</v>
+        <v>16.334943316802502</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1760,7 +1793,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1769,10 +1802,10 @@
         <v>99</v>
       </c>
       <c r="D16">
-        <v>48.256204731052698</v>
+        <v>48.130515204099098</v>
       </c>
       <c r="E16">
-        <v>16.400442533397499</v>
+        <v>16.3098375340189</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -1787,7 +1820,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -1796,16 +1829,16 @@
         <v>99</v>
       </c>
       <c r="D17">
-        <v>48.226254178910303</v>
+        <v>48.235217131100498</v>
       </c>
       <c r="E17">
-        <v>16.508438129988999</v>
+        <v>16.368636832930299</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1814,7 +1847,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1823,16 +1856,16 @@
         <v>99</v>
       </c>
       <c r="D18">
-        <v>48.219817359097704</v>
+        <v>48.141921600787903</v>
       </c>
       <c r="E18">
-        <v>16.449662667515199</v>
+        <v>16.316531068234401</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1841,7 +1874,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -1850,16 +1883,16 @@
         <v>99</v>
       </c>
       <c r="D19">
-        <v>48.233409768503201</v>
+        <v>48.256204731052698</v>
       </c>
       <c r="E19">
-        <v>16.485772626975599</v>
+        <v>16.400442533397499</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1868,7 +1901,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1877,10 +1910,10 @@
         <v>99</v>
       </c>
       <c r="D20">
-        <v>48.222523966125998</v>
+        <v>48.226254178910303</v>
       </c>
       <c r="E20">
-        <v>16.474871718755502</v>
+        <v>16.508438129988999</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -1895,7 +1928,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -1904,10 +1937,10 @@
         <v>99</v>
       </c>
       <c r="D21">
-        <v>48.219419110545097</v>
+        <v>48.219817359097704</v>
       </c>
       <c r="E21">
-        <v>16.466612161098698</v>
+        <v>16.449662667515199</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -1922,7 +1955,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1931,10 +1964,10 @@
         <v>99</v>
       </c>
       <c r="D22">
-        <v>48.220896078368298</v>
+        <v>48.233409768503201</v>
       </c>
       <c r="E22">
-        <v>16.457749951315201</v>
+        <v>16.485772626975599</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -1949,7 +1982,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1958,10 +1991,10 @@
         <v>99</v>
       </c>
       <c r="D23">
-        <v>48.211768603479896</v>
+        <v>48.222523966125998</v>
       </c>
       <c r="E23">
-        <v>16.440125089908801</v>
+        <v>16.474871718755502</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
@@ -1976,7 +2009,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
@@ -1985,10 +2018,10 @@
         <v>99</v>
       </c>
       <c r="D24">
-        <v>48.2345079150533</v>
+        <v>48.219419110545097</v>
       </c>
       <c r="E24">
-        <v>16.5044937908843</v>
+        <v>16.466612161098698</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -2003,7 +2036,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -2012,10 +2045,10 @@
         <v>99</v>
       </c>
       <c r="D25">
-        <v>48.2064650265471</v>
+        <v>48.220896078368298</v>
       </c>
       <c r="E25">
-        <v>16.431617486203798</v>
+        <v>16.457749951315201</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -2030,7 +2063,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -2039,10 +2072,10 @@
         <v>99</v>
       </c>
       <c r="D26">
-        <v>48.210671402885502</v>
+        <v>48.211768603479896</v>
       </c>
       <c r="E26">
-        <v>16.420255255579601</v>
+        <v>16.440125089908801</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2057,7 +2090,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
@@ -2066,10 +2099,10 @@
         <v>99</v>
       </c>
       <c r="D27">
-        <v>48.214686271632097</v>
+        <v>48.2345079150533</v>
       </c>
       <c r="E27">
-        <v>16.413752066012002</v>
+        <v>16.5044937908843</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2084,7 +2117,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
@@ -2093,10 +2126,10 @@
         <v>99</v>
       </c>
       <c r="D28">
-        <v>48.217792010671999</v>
+        <v>48.2064650265471</v>
       </c>
       <c r="E28">
-        <v>16.404963120853299</v>
+        <v>16.431617486203798</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
@@ -2111,7 +2144,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
@@ -2120,16 +2153,16 @@
         <v>99</v>
       </c>
       <c r="D29">
-        <v>48.277517865692502</v>
+        <v>48.210671402885502</v>
       </c>
       <c r="E29">
-        <v>16.452139552735201</v>
+        <v>16.420255255579601</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2138,7 +2171,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>7</v>
@@ -2147,16 +2180,16 @@
         <v>99</v>
       </c>
       <c r="D30">
-        <v>48.271010765636902</v>
+        <v>48.214686271632097</v>
       </c>
       <c r="E30">
-        <v>16.4478823771306</v>
+        <v>16.413752066012002</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2165,7 +2198,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -2174,16 +2207,16 @@
         <v>99</v>
       </c>
       <c r="D31">
-        <v>48.238337984732603</v>
+        <v>48.217792010671999</v>
       </c>
       <c r="E31">
-        <v>16.424901236767599</v>
+        <v>16.404963120853299</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2192,7 +2225,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -2201,10 +2234,10 @@
         <v>99</v>
       </c>
       <c r="D32">
-        <v>48.2634204838904</v>
+        <v>48.277517865692502</v>
       </c>
       <c r="E32">
-        <v>16.451625918740199</v>
+        <v>16.452139552735201</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
@@ -2219,7 +2252,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>7</v>
@@ -2228,10 +2261,10 @@
         <v>99</v>
       </c>
       <c r="D33">
-        <v>48.215091449058001</v>
+        <v>48.271010765636902</v>
       </c>
       <c r="E33">
-        <v>16.385113644869399</v>
+        <v>16.4478823771306</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
@@ -2246,7 +2279,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
@@ -2255,10 +2288,10 @@
         <v>99</v>
       </c>
       <c r="D34">
-        <v>48.257602853521902</v>
+        <v>48.238337984732603</v>
       </c>
       <c r="E34">
-        <v>16.449641645714301</v>
+        <v>16.424901236767599</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -2273,7 +2306,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -2282,10 +2315,10 @@
         <v>99</v>
       </c>
       <c r="D35">
-        <v>48.229227673623001</v>
+        <v>48.2634204838904</v>
       </c>
       <c r="E35">
-        <v>16.4113600875705</v>
+        <v>16.451625918740199</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -2300,7 +2333,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>7</v>
@@ -2309,10 +2342,10 @@
         <v>99</v>
       </c>
       <c r="D36">
-        <v>48.187145905485302</v>
+        <v>48.215091449058001</v>
       </c>
       <c r="E36">
-        <v>16.373613136637299</v>
+        <v>16.385113644869399</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -2327,7 +2360,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
@@ -2336,10 +2369,10 @@
         <v>99</v>
       </c>
       <c r="D37">
-        <v>48.250222543967702</v>
+        <v>48.257602853521902</v>
       </c>
       <c r="E37">
-        <v>16.443256524414501</v>
+        <v>16.449641645714301</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2354,7 +2387,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
@@ -2363,10 +2396,10 @@
         <v>99</v>
       </c>
       <c r="D38">
-        <v>48.242959213349003</v>
+        <v>48.229227673623001</v>
       </c>
       <c r="E38">
-        <v>16.432858206625799</v>
+        <v>16.4113600875705</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2381,7 +2414,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
@@ -2390,10 +2423,10 @@
         <v>99</v>
       </c>
       <c r="D39">
-        <v>48.174989952355297</v>
+        <v>48.187145905485302</v>
       </c>
       <c r="E39">
-        <v>16.377905052346598</v>
+        <v>16.373613136637299</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -2408,7 +2441,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
@@ -2417,16 +2450,16 @@
         <v>99</v>
       </c>
       <c r="D40">
-        <v>48.211059149435798</v>
+        <v>48.250222543967702</v>
       </c>
       <c r="E40">
-        <v>16.311366713192299</v>
+        <v>16.443256524414501</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2435,7 +2468,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
@@ -2444,10 +2477,10 @@
         <v>99</v>
       </c>
       <c r="D41">
-        <v>48.153632091104797</v>
+        <v>48.242959213349003</v>
       </c>
       <c r="E41">
-        <v>16.3823650872299</v>
+        <v>16.432858206625799</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -2462,7 +2495,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
@@ -2471,10 +2504,10 @@
         <v>99</v>
       </c>
       <c r="D42">
-        <v>48.161948857712801</v>
+        <v>48.174989952355297</v>
       </c>
       <c r="E42">
-        <v>16.3832292708537</v>
+        <v>16.377905052346598</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2489,7 +2522,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
@@ -2498,16 +2531,16 @@
         <v>99</v>
       </c>
       <c r="D43">
-        <v>48.142191451525598</v>
+        <v>48.211059149435798</v>
       </c>
       <c r="E43">
-        <v>16.400430201566301</v>
+        <v>16.311366713192299</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2516,7 +2549,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>7</v>
@@ -2525,10 +2558,10 @@
         <v>99</v>
       </c>
       <c r="D44">
-        <v>48.1691627655959</v>
+        <v>48.153632091104797</v>
       </c>
       <c r="E44">
-        <v>16.380315900921801</v>
+        <v>16.3823650872299</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2543,7 +2576,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>7</v>
@@ -2552,10 +2585,10 @@
         <v>99</v>
       </c>
       <c r="D45">
-        <v>48.145589417483002</v>
+        <v>48.161948857712801</v>
       </c>
       <c r="E45">
-        <v>16.3865542933024</v>
+        <v>16.3832292708537</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2570,7 +2603,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>7</v>
@@ -2579,16 +2612,16 @@
         <v>99</v>
       </c>
       <c r="D46">
-        <v>48.216775002793597</v>
+        <v>48.142191451525598</v>
       </c>
       <c r="E46">
-        <v>16.3418152487261</v>
+        <v>16.400430201566301</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2597,7 +2630,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
@@ -2606,16 +2639,16 @@
         <v>99</v>
       </c>
       <c r="D47">
-        <v>48.189412360620402</v>
+        <v>48.1691627655959</v>
       </c>
       <c r="E47">
-        <v>16.295803553490099</v>
+        <v>16.380315900921801</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2624,7 +2657,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
@@ -2633,16 +2666,16 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>48.203365085364901</v>
+        <v>48.145589417483002</v>
       </c>
       <c r="E48">
-        <v>16.3371928934422</v>
+        <v>16.3865542933024</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2651,7 +2684,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>7</v>
@@ -2660,16 +2693,16 @@
         <v>99</v>
       </c>
       <c r="D49">
-        <v>48.191425114398697</v>
+        <v>48.216775002793597</v>
       </c>
       <c r="E49">
-        <v>16.4141405460595</v>
+        <v>16.3418152487261</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2678,7 +2711,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>7</v>
@@ -2687,16 +2720,16 @@
         <v>99</v>
       </c>
       <c r="D50">
-        <v>48.180439246243203</v>
+        <v>48.189412360620402</v>
       </c>
       <c r="E50">
-        <v>16.412065829472301</v>
+        <v>16.295803553490099</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2705,7 +2738,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>7</v>
@@ -2714,10 +2747,10 @@
         <v>99</v>
       </c>
       <c r="D51">
-        <v>48.190867982179199</v>
+        <v>48.203365085364901</v>
       </c>
       <c r="E51">
-        <v>16.3375114209149</v>
+        <v>16.3371928934422</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2732,7 +2765,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>7</v>
@@ -2741,16 +2774,16 @@
         <v>99</v>
       </c>
       <c r="D52">
-        <v>48.237255632164</v>
+        <v>48.191425114398697</v>
       </c>
       <c r="E52">
-        <v>16.380131011741501</v>
+        <v>16.4141405460595</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2759,7 +2792,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>7</v>
@@ -2768,10 +2801,10 @@
         <v>99</v>
       </c>
       <c r="D53">
-        <v>48.2093447703745</v>
+        <v>48.180439246243203</v>
       </c>
       <c r="E53">
-        <v>16.365412433048899</v>
+        <v>16.412065829472301</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -2786,7 +2819,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>7</v>
@@ -2795,16 +2828,16 @@
         <v>99</v>
       </c>
       <c r="D54">
-        <v>48.187546651901897</v>
+        <v>48.190867982179199</v>
       </c>
       <c r="E54">
-        <v>16.305031084672301</v>
+        <v>16.3375114209149</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2813,7 +2846,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>7</v>
@@ -2822,16 +2855,16 @@
         <v>99</v>
       </c>
       <c r="D55">
-        <v>48.197642239755503</v>
+        <v>48.237255632164</v>
       </c>
       <c r="E55">
-        <v>16.320080048337701</v>
+        <v>16.380131011741501</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2840,7 +2873,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
@@ -2849,16 +2882,16 @@
         <v>99</v>
       </c>
       <c r="D56">
-        <v>48.211550222471303</v>
+        <v>48.2093447703745</v>
       </c>
       <c r="E56">
-        <v>16.339161406618999</v>
+        <v>16.365412433048899</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2867,7 +2900,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>7</v>
@@ -2876,16 +2909,16 @@
         <v>99</v>
       </c>
       <c r="D57">
-        <v>48.232861845873003</v>
+        <v>48.187546651901897</v>
       </c>
       <c r="E57">
-        <v>16.416496832133301</v>
+        <v>16.305031084672301</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2894,7 +2927,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>7</v>
@@ -2903,10 +2936,10 @@
         <v>99</v>
       </c>
       <c r="D58">
-        <v>48.197558621915299</v>
+        <v>48.197642239755503</v>
       </c>
       <c r="E58">
-        <v>16.399882982436001</v>
+        <v>16.320080048337701</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -2921,7 +2954,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
@@ -2930,16 +2963,16 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>48.200461908387297</v>
+        <v>48.211550222471303</v>
       </c>
       <c r="E59">
-        <v>16.368679459080099</v>
+        <v>16.339161406618999</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2948,7 +2981,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
@@ -2957,10 +2990,10 @@
         <v>99</v>
       </c>
       <c r="D60">
-        <v>48.179192090746</v>
+        <v>48.232861845873003</v>
       </c>
       <c r="E60">
-        <v>16.3761836340366</v>
+        <v>16.416496832133301</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
@@ -2975,7 +3008,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
@@ -2984,16 +3017,16 @@
         <v>99</v>
       </c>
       <c r="D61">
-        <v>48.196614938120703</v>
+        <v>48.197558621915299</v>
       </c>
       <c r="E61">
-        <v>16.357976518583701</v>
+        <v>16.399882982436001</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3002,7 +3035,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
@@ -3011,16 +3044,16 @@
         <v>99</v>
       </c>
       <c r="D62">
-        <v>48.1991725051343</v>
+        <v>48.200461908387297</v>
       </c>
       <c r="E62">
-        <v>16.3522751088353</v>
+        <v>16.368679459080099</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3029,7 +3062,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
@@ -3038,16 +3071,16 @@
         <v>99</v>
       </c>
       <c r="D63">
-        <v>48.206301017717301</v>
+        <v>48.179192090746</v>
       </c>
       <c r="E63">
-        <v>16.3839158186181</v>
+        <v>16.3761836340366</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3056,7 +3089,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
@@ -3065,16 +3098,16 @@
         <v>99</v>
       </c>
       <c r="D64">
-        <v>48.221281121207802</v>
+        <v>48.196614938120703</v>
       </c>
       <c r="E64">
-        <v>16.344276994169501</v>
+        <v>16.357976518583701</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3083,7 +3116,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
@@ -3092,16 +3125,16 @@
         <v>99</v>
       </c>
       <c r="D65">
-        <v>48.180776249100902</v>
+        <v>48.1991725051343</v>
       </c>
       <c r="E65">
-        <v>16.331180131750799</v>
+        <v>16.3522751088353</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3110,7 +3143,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
@@ -3119,16 +3152,16 @@
         <v>99</v>
       </c>
       <c r="D66">
-        <v>48.231323460580803</v>
+        <v>48.206301017717301</v>
       </c>
       <c r="E66">
-        <v>16.352435723682099</v>
+        <v>16.3839158186181</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3137,7 +3170,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
@@ -3146,16 +3179,16 @@
         <v>99</v>
       </c>
       <c r="D67">
-        <v>48.192239540974803</v>
+        <v>48.221281121207802</v>
       </c>
       <c r="E67">
-        <v>16.276205909609502</v>
+        <v>16.344276994169501</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3164,7 +3197,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
@@ -3173,10 +3206,10 @@
         <v>99</v>
       </c>
       <c r="D68">
-        <v>48.136886078204199</v>
+        <v>48.180776249100902</v>
       </c>
       <c r="E68">
-        <v>16.313447385677701</v>
+        <v>16.331180131750799</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -3191,7 +3224,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -3200,10 +3233,10 @@
         <v>99</v>
       </c>
       <c r="D69">
-        <v>48.174201770401297</v>
+        <v>48.231323460580803</v>
       </c>
       <c r="E69">
-        <v>16.3314961287012</v>
+        <v>16.352435723682099</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
@@ -3218,7 +3251,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
@@ -3227,10 +3260,10 @@
         <v>99</v>
       </c>
       <c r="D70">
-        <v>48.192031302903899</v>
+        <v>48.192239540974803</v>
       </c>
       <c r="E70">
-        <v>16.354241098311199</v>
+        <v>16.276205909609502</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
@@ -3245,7 +3278,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
@@ -3254,16 +3287,16 @@
         <v>99</v>
       </c>
       <c r="D71">
-        <v>48.199796591292497</v>
+        <v>48.136886078204199</v>
       </c>
       <c r="E71">
-        <v>16.3113939494243</v>
+        <v>16.313447385677701</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3272,7 +3305,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
@@ -3281,16 +3314,16 @@
         <v>99</v>
       </c>
       <c r="D72">
-        <v>48.218871301428003</v>
+        <v>48.174201770401297</v>
       </c>
       <c r="E72">
-        <v>16.391381828582801</v>
+        <v>16.3314961287012</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3299,7 +3332,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
@@ -3308,10 +3341,10 @@
         <v>99</v>
       </c>
       <c r="D73">
-        <v>48.2356312778427</v>
+        <v>48.192031302903899</v>
       </c>
       <c r="E73">
-        <v>16.358433430790001</v>
+        <v>16.354241098311199</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
@@ -3326,7 +3359,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -3335,10 +3368,10 @@
         <v>99</v>
       </c>
       <c r="D74">
-        <v>48.202085261385697</v>
+        <v>48.199796591292497</v>
       </c>
       <c r="E74">
-        <v>16.3922538196944</v>
+        <v>16.3113939494243</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
@@ -3353,7 +3386,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
@@ -3362,16 +3395,16 @@
         <v>99</v>
       </c>
       <c r="D75">
-        <v>48.222256371270298</v>
+        <v>48.218871301428003</v>
       </c>
       <c r="E75">
-        <v>16.367568667360299</v>
+        <v>16.391381828582801</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3380,7 +3413,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
@@ -3389,10 +3422,10 @@
         <v>99</v>
       </c>
       <c r="D76">
-        <v>48.217146092964299</v>
+        <v>48.2356312778427</v>
       </c>
       <c r="E76">
-        <v>16.371244989355699</v>
+        <v>16.358433430790001</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
@@ -3407,7 +3440,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
@@ -3416,16 +3449,16 @@
         <v>99</v>
       </c>
       <c r="D77">
-        <v>48.211805714655902</v>
+        <v>48.202085261385697</v>
       </c>
       <c r="E77">
-        <v>16.3783661729078</v>
+        <v>16.3922538196944</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3434,7 +3467,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
@@ -3443,16 +3476,16 @@
         <v>99</v>
       </c>
       <c r="D78">
-        <v>48.194414017458499</v>
+        <v>48.222256371270298</v>
       </c>
       <c r="E78">
-        <v>16.406748730417199</v>
+        <v>16.367568667360299</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3461,7 +3494,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
@@ -3470,16 +3503,16 @@
         <v>99</v>
       </c>
       <c r="D79">
-        <v>48.197800812797901</v>
+        <v>48.217146092964299</v>
       </c>
       <c r="E79">
-        <v>16.328518689581301</v>
+        <v>16.371244989355699</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3488,7 +3521,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
@@ -3497,16 +3530,16 @@
         <v>99</v>
       </c>
       <c r="D80">
-        <v>48.202808579018303</v>
+        <v>48.211805714655902</v>
       </c>
       <c r="E80">
-        <v>16.379578467601899</v>
+        <v>16.3783661729078</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3515,7 +3548,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -3524,10 +3557,10 @@
         <v>99</v>
       </c>
       <c r="D81">
-        <v>48.204540181864402</v>
+        <v>48.194414017458499</v>
       </c>
       <c r="E81">
-        <v>16.3091474289552</v>
+        <v>16.406748730417199</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
@@ -3542,7 +3575,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
@@ -3551,16 +3584,16 @@
         <v>99</v>
       </c>
       <c r="D82">
-        <v>48.208046834199401</v>
+        <v>48.197800812797901</v>
       </c>
       <c r="E82">
-        <v>16.3715306120903</v>
+        <v>16.328518689581301</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3569,7 +3602,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
@@ -3578,16 +3611,16 @@
         <v>99</v>
       </c>
       <c r="D83">
-        <v>48.193916076791602</v>
+        <v>48.202808579018303</v>
       </c>
       <c r="E83">
-        <v>16.370341054127302</v>
+        <v>16.379578467601899</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3596,7 +3629,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
@@ -3605,16 +3638,16 @@
         <v>99</v>
       </c>
       <c r="D84">
-        <v>48.2078009691215</v>
+        <v>48.204540181864402</v>
       </c>
       <c r="E84">
-        <v>16.338015523652398</v>
+        <v>16.3091474289552</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3623,7 +3656,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
@@ -3632,16 +3665,16 @@
         <v>99</v>
       </c>
       <c r="D85">
-        <v>48.1648596901655</v>
+        <v>48.208046834199401</v>
       </c>
       <c r="E85">
-        <v>16.327668774911601</v>
+        <v>16.3715306120903</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3650,7 +3683,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>7</v>
@@ -3659,16 +3692,16 @@
         <v>99</v>
       </c>
       <c r="D86">
-        <v>48.191127863278602</v>
+        <v>48.193916076791602</v>
       </c>
       <c r="E86">
-        <v>16.285948386992299</v>
+        <v>16.370341054127302</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3677,7 +3710,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
@@ -3686,16 +3719,16 @@
         <v>99</v>
       </c>
       <c r="D87">
-        <v>48.204915658283099</v>
+        <v>48.2078009691215</v>
       </c>
       <c r="E87">
-        <v>16.3582601366227</v>
+        <v>16.338015523652398</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3704,7 +3737,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -3713,16 +3746,16 @@
         <v>99</v>
       </c>
       <c r="D88">
-        <v>48.2236292672643</v>
+        <v>48.1648596901655</v>
       </c>
       <c r="E88">
-        <v>16.401076559650701</v>
+        <v>16.327668774911601</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3731,7 +3764,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
@@ -3740,16 +3773,16 @@
         <v>99</v>
       </c>
       <c r="D89">
-        <v>48.195838255457602</v>
+        <v>48.191127863278602</v>
       </c>
       <c r="E89">
-        <v>16.3396016754645</v>
+        <v>16.285948386992299</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3758,7 +3791,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>7</v>
@@ -3767,16 +3800,16 @@
         <v>99</v>
       </c>
       <c r="D90">
-        <v>48.150727425264598</v>
+        <v>48.204915658283099</v>
       </c>
       <c r="E90">
-        <v>16.316875926933299</v>
+        <v>16.3582601366227</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3785,7 +3818,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
@@ -3794,16 +3827,16 @@
         <v>99</v>
       </c>
       <c r="D91">
-        <v>48.225586839174298</v>
+        <v>48.2236292672643</v>
       </c>
       <c r="E91">
-        <v>16.349500070214798</v>
+        <v>16.401076559650701</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3812,7 +3845,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
@@ -3821,10 +3854,10 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>48.1970803711367</v>
+        <v>48.195838255457602</v>
       </c>
       <c r="E92">
-        <v>16.3459802174687</v>
+        <v>16.3396016754645</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
@@ -3839,7 +3872,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
@@ -3848,16 +3881,16 @@
         <v>99</v>
       </c>
       <c r="D93">
-        <v>48.214526571260997</v>
+        <v>48.150727425264598</v>
       </c>
       <c r="E93">
-        <v>16.361836178517599</v>
+        <v>16.316875926933299</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3866,7 +3899,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>7</v>
@@ -3875,10 +3908,10 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>48.246405762873401</v>
+        <v>48.225586839174298</v>
       </c>
       <c r="E94">
-        <v>16.394834441936599</v>
+        <v>16.349500070214798</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -3893,7 +3926,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
@@ -3902,16 +3935,16 @@
         <v>99</v>
       </c>
       <c r="D95">
-        <v>48.241860535835002</v>
+        <v>48.1970803711367</v>
       </c>
       <c r="E95">
-        <v>16.385702894060199</v>
+        <v>16.3459802174687</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3920,7 +3953,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
@@ -3929,16 +3962,16 @@
         <v>99</v>
       </c>
       <c r="D96">
-        <v>48.185143015384497</v>
+        <v>48.214526571260997</v>
       </c>
       <c r="E96">
-        <v>16.417467121381801</v>
+        <v>16.361836178517599</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3947,7 +3980,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
@@ -3956,16 +3989,16 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>48.174718736083598</v>
+        <v>48.246405762873401</v>
       </c>
       <c r="E97">
-        <v>16.414796672573601</v>
+        <v>16.394834441936599</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3974,7 +4007,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
@@ -3983,16 +4016,16 @@
         <v>99</v>
       </c>
       <c r="D98">
-        <v>48.219130313111201</v>
+        <v>48.241860535835002</v>
       </c>
       <c r="E98">
-        <v>16.381291851267001</v>
+        <v>16.385702894060199</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4001,7 +4034,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -4010,16 +4043,16 @@
         <v>99</v>
       </c>
       <c r="D99">
-        <v>48.1969570149733</v>
+        <v>48.185143015384497</v>
       </c>
       <c r="E99">
-        <v>16.260835508353701</v>
+        <v>16.417467121381801</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4028,7 +4061,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>7</v>
@@ -4037,16 +4070,16 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>48.188483960992599</v>
+        <v>48.174718736083598</v>
       </c>
       <c r="E100">
-        <v>16.342954397677602</v>
+        <v>16.414796672573601</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4055,7 +4088,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
@@ -4064,16 +4097,16 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>48.18604725454</v>
+        <v>48.219130313111201</v>
       </c>
       <c r="E101">
-        <v>16.3189556071334</v>
+        <v>16.381291851267001</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4082,7 +4115,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
@@ -4091,16 +4124,16 @@
         <v>99</v>
       </c>
       <c r="D102">
-        <v>48.1607153820297</v>
+        <v>48.1969570149733</v>
       </c>
       <c r="E102">
-        <v>16.324229809458199</v>
+        <v>16.260835508353701</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4109,7 +4142,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
@@ -4118,16 +4151,16 @@
         <v>99</v>
       </c>
       <c r="D103">
-        <v>48.206816355148803</v>
+        <v>48.188483960992599</v>
       </c>
       <c r="E103">
-        <v>16.3791309479708</v>
+        <v>16.342954397677602</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4136,30 +4169,111 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>99</v>
+      </c>
+      <c r="D104">
+        <v>48.18604725454</v>
+      </c>
+      <c r="E104">
+        <v>16.3189556071334</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>99</v>
+      </c>
+      <c r="D105">
+        <v>48.1607153820297</v>
+      </c>
+      <c r="E105">
+        <v>16.324229809458199</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>6</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>99</v>
+      </c>
+      <c r="D106">
+        <v>48.206816355148803</v>
+      </c>
+      <c r="E106">
+        <v>16.3791309479708</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104">
-        <v>99</v>
-      </c>
-      <c r="D104">
+      <c r="B107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>99</v>
+      </c>
+      <c r="D107">
         <v>48.169649232274203</v>
       </c>
-      <c r="E104">
+      <c r="E107">
         <v>16.4207002221215</v>
       </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104">
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107">
         <v>3</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="J104" s="1"/>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4175,10 +4289,11 @@
     <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
     <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
     <hyperlink ref="J8" r:id="rId12" xr:uid="{37F5FE2C-4372-4EA0-94D0-B9782456EAE5}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{A892E87D-08AD-422E-9869-BD063056F2CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8727A-B65F-4380-9050-4A81E370DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C2767-6246-4427-B3BD-4A81CD8A8CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="137">
   <si>
     <t>Bezirk</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Kosten</t>
   </si>
   <si>
-    <t>https://www.immobilienscout24.at/expose/64bb5b40e9c3a77623c50d7d</t>
-  </si>
-  <si>
     <t>https://www.willhaben.at/iad/immobilien/d/mietwohnungen/wien/wien-1170-hernals/charmante-wohnung-mit-loggia-in-neuwaldegg-693483224</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Bild</t>
   </si>
   <si>
-    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E3qvQ-1689312831-47e29b04deaf499aba2623f51bf31a9a</t>
-  </si>
-  <si>
     <t>https://cache.willhaben.at/mmo/4/693/483/224_645391787.jpg</t>
   </si>
   <si>
@@ -406,6 +400,42 @@
   </si>
   <si>
     <t>https://www.dibeo.at/expose/imv/w-miete-miete/wie/1030/bis90m2/1507045/acvblr</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001apN51-1687174901-839fd9f63705492e963fb0f9932f74c1</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/6490262ae31aca7c48c25db8</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001NbW1I-1496956475-28f1489b753b4171b499cde10eed725f</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b7fd4a7f4db1c4f7279d2c</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E84g4-31e3ac0fdc8949f38154bff46386db12</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/645a2ceeb190b55e83399d39</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83Tp-1622641665-308b751a8052431c9ef25aa1203d73cd</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/645368c71f3d25486bb482d5</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0015I00000k7ZSw-c0b95ddea1994ce2928eb25d5a21f8ce</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64bfce6500cbd3e3b8db25e3</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0010J00001vIdYP-1688827185-0802235cd7bb412c8f9a2cb3df85b226</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b53368277557516bdc4bfc</t>
   </si>
 </sst>
 </file>
@@ -910,7 +940,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -922,6 +952,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1037,8 +1068,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J107" totalsRowShown="0">
-  <autoFilter ref="A1:J107" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J112" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -1318,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1339,57 +1369,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45170</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>48.224250905404297</v>
+      </c>
+      <c r="E2">
+        <v>16.3105098246984</v>
       </c>
       <c r="F2" s="5">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>1195</v>
+        <v>1016</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>2</v>
@@ -1397,31 +1433,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45122</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>48.224250905404297</v>
+        <v>48.1811460831359</v>
       </c>
       <c r="E3">
-        <v>16.3105098246984</v>
+        <v>16.359199378402401</v>
       </c>
       <c r="F3" s="5">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>1016</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
+        <v>898</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -1429,31 +1465,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45122</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>48.1811460831359</v>
+        <v>48.227338106757202</v>
       </c>
       <c r="E4">
-        <v>16.359199378402401</v>
+        <v>16.355213370733502</v>
       </c>
       <c r="F4" s="5">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>898</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>920</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>4</v>
@@ -1461,63 +1497,63 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>48.227338106757202</v>
+        <v>48.215990344736802</v>
       </c>
       <c r="E5">
-        <v>16.355213370733502</v>
+        <v>16.330266459401201</v>
       </c>
       <c r="F5" s="5">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>920</v>
+        <v>1115</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45153</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>48.215990344736802</v>
+        <v>48.187539527036897</v>
       </c>
       <c r="E6">
-        <v>16.330266459401201</v>
+        <v>16.3850649576063</v>
       </c>
       <c r="F6" s="5">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" s="2">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
@@ -1525,92 +1561,92 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>45153</v>
+        <v>45170</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>48.187539527036897</v>
+        <v>48.191374732872603</v>
       </c>
       <c r="E7">
-        <v>16.3850649576063</v>
+        <v>16.369702441589901</v>
       </c>
       <c r="F7" s="5">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1025</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>990</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>45170</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>48.191374732872603</v>
+        <v>48.1857062785569</v>
       </c>
       <c r="E8">
-        <v>16.369702441589901</v>
+        <v>16.3527917208906</v>
       </c>
       <c r="F8" s="5">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9">
-        <v>990</v>
-      </c>
-      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1227.1400000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>48.1857062785569</v>
+        <v>48.190726994588204</v>
       </c>
       <c r="E9">
-        <v>16.3527917208906</v>
+        <v>16.326481199566999</v>
       </c>
       <c r="F9" s="5">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>1227.1400000000001</v>
+        <v>1053</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>121</v>
@@ -1621,30 +1657,30 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>45200</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>48.190726994588204</v>
+        <v>48.201588356949202</v>
       </c>
       <c r="E10">
-        <v>16.326481199566999</v>
+        <v>16.390848359916099</v>
       </c>
       <c r="F10" s="5">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>1053</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>123</v>
       </c>
       <c r="J10" t="s">
@@ -1652,31 +1688,31 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45200</v>
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>48.201588356949202</v>
+        <v>48.198431993278902</v>
       </c>
       <c r="E11">
-        <v>16.390848359916099</v>
+        <v>16.365544789384199</v>
       </c>
       <c r="F11" s="5">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>1279</v>
-      </c>
-      <c r="I11" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J11" t="s">
@@ -1684,161 +1720,180 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45200</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>48.183644993163902</v>
-      </c>
-      <c r="E12">
-        <v>16.327764778217102</v>
+        <v>48.178791879408401</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16.329978256933199</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1215</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>48.227767239604397</v>
+        <v>48.191788893938899</v>
       </c>
       <c r="E13">
-        <v>16.364011620482898</v>
+        <v>16.332557768574102</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1127</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45170</v>
       </c>
       <c r="C14">
-        <v>99</v>
-      </c>
-      <c r="D14">
-        <v>48.248451460447001</v>
-      </c>
-      <c r="E14">
-        <v>16.365810794397799</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1350</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>15.08</v>
       </c>
       <c r="C15">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>48.1848015142332</v>
+        <v>48.181493788004197</v>
       </c>
       <c r="E15">
-        <v>16.334943316802502</v>
+        <v>16.397283668298599</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1250</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>48.130515204099098</v>
+        <v>48.186695565981999</v>
       </c>
       <c r="E16">
-        <v>16.3098375340189</v>
+        <v>16.3349432722773</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>959</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>99</v>
       </c>
       <c r="D17">
-        <v>48.235217131100498</v>
+        <v>48.183644993163902</v>
       </c>
       <c r="E17">
-        <v>16.368636832930299</v>
+        <v>16.327764778217102</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1847,25 +1902,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>99</v>
       </c>
       <c r="D18">
-        <v>48.141921600787903</v>
+        <v>48.227767239604397</v>
       </c>
       <c r="E18">
-        <v>16.316531068234401</v>
+        <v>16.364011620482898</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1874,25 +1929,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>99</v>
       </c>
       <c r="D19">
-        <v>48.256204731052698</v>
+        <v>48.248451460447001</v>
       </c>
       <c r="E19">
-        <v>16.400442533397499</v>
+        <v>16.365810794397799</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1901,25 +1956,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>99</v>
       </c>
       <c r="D20">
-        <v>48.226254178910303</v>
+        <v>48.1848015142332</v>
       </c>
       <c r="E20">
-        <v>16.508438129988999</v>
+        <v>16.334943316802502</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1928,25 +1983,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>99</v>
       </c>
       <c r="D21">
-        <v>48.219817359097704</v>
+        <v>48.130515204099098</v>
       </c>
       <c r="E21">
-        <v>16.449662667515199</v>
+        <v>16.3098375340189</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1955,25 +2010,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>99</v>
       </c>
       <c r="D22">
-        <v>48.233409768503201</v>
+        <v>48.235217131100498</v>
       </c>
       <c r="E22">
-        <v>16.485772626975599</v>
+        <v>16.368636832930299</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1982,25 +2037,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>99</v>
       </c>
       <c r="D23">
-        <v>48.222523966125998</v>
+        <v>48.141921600787903</v>
       </c>
       <c r="E23">
-        <v>16.474871718755502</v>
+        <v>16.316531068234401</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2009,25 +2064,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>99</v>
       </c>
       <c r="D24">
-        <v>48.219419110545097</v>
+        <v>48.256204731052698</v>
       </c>
       <c r="E24">
-        <v>16.466612161098698</v>
+        <v>16.400442533397499</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2036,19 +2091,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>99</v>
       </c>
       <c r="D25">
-        <v>48.220896078368298</v>
+        <v>48.226254178910303</v>
       </c>
       <c r="E25">
-        <v>16.457749951315201</v>
+        <v>16.508438129988999</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -2063,19 +2118,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>99</v>
       </c>
       <c r="D26">
-        <v>48.211768603479896</v>
+        <v>48.219817359097704</v>
       </c>
       <c r="E26">
-        <v>16.440125089908801</v>
+        <v>16.449662667515199</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -2090,19 +2145,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>99</v>
       </c>
       <c r="D27">
-        <v>48.2345079150533</v>
+        <v>48.233409768503201</v>
       </c>
       <c r="E27">
-        <v>16.5044937908843</v>
+        <v>16.485772626975599</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
@@ -2117,19 +2172,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>99</v>
       </c>
       <c r="D28">
-        <v>48.2064650265471</v>
+        <v>48.222523966125998</v>
       </c>
       <c r="E28">
-        <v>16.431617486203798</v>
+        <v>16.474871718755502</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
@@ -2144,19 +2199,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>99</v>
       </c>
       <c r="D29">
-        <v>48.210671402885502</v>
+        <v>48.219419110545097</v>
       </c>
       <c r="E29">
-        <v>16.420255255579601</v>
+        <v>16.466612161098698</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
@@ -2171,19 +2226,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>99</v>
       </c>
       <c r="D30">
-        <v>48.214686271632097</v>
+        <v>48.220896078368298</v>
       </c>
       <c r="E30">
-        <v>16.413752066012002</v>
+        <v>16.457749951315201</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
@@ -2198,19 +2253,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>99</v>
       </c>
       <c r="D31">
-        <v>48.217792010671999</v>
+        <v>48.211768603479896</v>
       </c>
       <c r="E31">
-        <v>16.404963120853299</v>
+        <v>16.440125089908801</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
@@ -2225,25 +2280,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>99</v>
       </c>
       <c r="D32">
-        <v>48.277517865692502</v>
+        <v>48.2345079150533</v>
       </c>
       <c r="E32">
-        <v>16.452139552735201</v>
+        <v>16.5044937908843</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2252,25 +2307,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>99</v>
       </c>
       <c r="D33">
-        <v>48.271010765636902</v>
+        <v>48.2064650265471</v>
       </c>
       <c r="E33">
-        <v>16.4478823771306</v>
+        <v>16.431617486203798</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2279,25 +2334,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>99</v>
       </c>
       <c r="D34">
-        <v>48.238337984732603</v>
+        <v>48.210671402885502</v>
       </c>
       <c r="E34">
-        <v>16.424901236767599</v>
+        <v>16.420255255579601</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2306,25 +2361,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>99</v>
       </c>
       <c r="D35">
-        <v>48.2634204838904</v>
+        <v>48.214686271632097</v>
       </c>
       <c r="E35">
-        <v>16.451625918740199</v>
+        <v>16.413752066012002</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2333,25 +2388,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>99</v>
       </c>
       <c r="D36">
-        <v>48.215091449058001</v>
+        <v>48.217792010671999</v>
       </c>
       <c r="E36">
-        <v>16.385113644869399</v>
+        <v>16.404963120853299</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2360,19 +2415,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>99</v>
       </c>
       <c r="D37">
-        <v>48.257602853521902</v>
+        <v>48.277517865692502</v>
       </c>
       <c r="E37">
-        <v>16.449641645714301</v>
+        <v>16.452139552735201</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -2387,19 +2442,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>99</v>
       </c>
       <c r="D38">
-        <v>48.229227673623001</v>
+        <v>48.271010765636902</v>
       </c>
       <c r="E38">
-        <v>16.4113600875705</v>
+        <v>16.4478823771306</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -2414,19 +2469,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>99</v>
       </c>
       <c r="D39">
-        <v>48.187145905485302</v>
+        <v>48.238337984732603</v>
       </c>
       <c r="E39">
-        <v>16.373613136637299</v>
+        <v>16.424901236767599</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -2441,19 +2496,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>99</v>
       </c>
       <c r="D40">
-        <v>48.250222543967702</v>
+        <v>48.2634204838904</v>
       </c>
       <c r="E40">
-        <v>16.443256524414501</v>
+        <v>16.451625918740199</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -2468,19 +2523,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>99</v>
       </c>
       <c r="D41">
-        <v>48.242959213349003</v>
+        <v>48.215091449058001</v>
       </c>
       <c r="E41">
-        <v>16.432858206625799</v>
+        <v>16.385113644869399</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -2495,19 +2550,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>99</v>
       </c>
       <c r="D42">
-        <v>48.174989952355297</v>
+        <v>48.257602853521902</v>
       </c>
       <c r="E42">
-        <v>16.377905052346598</v>
+        <v>16.449641645714301</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2522,25 +2577,25 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>99</v>
       </c>
       <c r="D43">
-        <v>48.211059149435798</v>
+        <v>48.229227673623001</v>
       </c>
       <c r="E43">
-        <v>16.311366713192299</v>
+        <v>16.4113600875705</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2549,19 +2604,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>99</v>
       </c>
       <c r="D44">
-        <v>48.153632091104797</v>
+        <v>48.187145905485302</v>
       </c>
       <c r="E44">
-        <v>16.3823650872299</v>
+        <v>16.373613136637299</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -2576,19 +2631,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>99</v>
       </c>
       <c r="D45">
-        <v>48.161948857712801</v>
+        <v>48.250222543967702</v>
       </c>
       <c r="E45">
-        <v>16.3832292708537</v>
+        <v>16.443256524414501</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2603,19 +2658,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>99</v>
       </c>
       <c r="D46">
-        <v>48.142191451525598</v>
+        <v>48.242959213349003</v>
       </c>
       <c r="E46">
-        <v>16.400430201566301</v>
+        <v>16.432858206625799</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
@@ -2630,19 +2685,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>99</v>
       </c>
       <c r="D47">
-        <v>48.1691627655959</v>
+        <v>48.174989952355297</v>
       </c>
       <c r="E47">
-        <v>16.380315900921801</v>
+        <v>16.377905052346598</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -2657,25 +2712,25 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>99</v>
       </c>
       <c r="D48">
-        <v>48.145589417483002</v>
+        <v>48.211059149435798</v>
       </c>
       <c r="E48">
-        <v>16.3865542933024</v>
+        <v>16.311366713192299</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2684,25 +2739,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>99</v>
       </c>
       <c r="D49">
-        <v>48.216775002793597</v>
+        <v>48.153632091104797</v>
       </c>
       <c r="E49">
-        <v>16.3418152487261</v>
+        <v>16.3823650872299</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2711,25 +2766,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>99</v>
       </c>
       <c r="D50">
-        <v>48.189412360620402</v>
+        <v>48.161948857712801</v>
       </c>
       <c r="E50">
-        <v>16.295803553490099</v>
+        <v>16.3832292708537</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2738,25 +2793,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>99</v>
       </c>
       <c r="D51">
-        <v>48.203365085364901</v>
+        <v>48.142191451525598</v>
       </c>
       <c r="E51">
-        <v>16.3371928934422</v>
+        <v>16.400430201566301</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2765,25 +2820,25 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>99</v>
       </c>
       <c r="D52">
-        <v>48.191425114398697</v>
+        <v>48.1691627655959</v>
       </c>
       <c r="E52">
-        <v>16.4141405460595</v>
+        <v>16.380315900921801</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2792,25 +2847,25 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>99</v>
       </c>
       <c r="D53">
-        <v>48.180439246243203</v>
+        <v>48.145589417483002</v>
       </c>
       <c r="E53">
-        <v>16.412065829472301</v>
+        <v>16.3865542933024</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2819,19 +2874,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54">
         <v>99</v>
       </c>
       <c r="D54">
-        <v>48.190867982179199</v>
+        <v>48.216775002793597</v>
       </c>
       <c r="E54">
-        <v>16.3375114209149</v>
+        <v>16.3418152487261</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -2846,25 +2901,25 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>99</v>
       </c>
       <c r="D55">
-        <v>48.237255632164</v>
+        <v>48.189412360620402</v>
       </c>
       <c r="E55">
-        <v>16.380131011741501</v>
+        <v>16.295803553490099</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2873,25 +2928,25 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>99</v>
       </c>
       <c r="D56">
-        <v>48.2093447703745</v>
+        <v>48.203365085364901</v>
       </c>
       <c r="E56">
-        <v>16.365412433048899</v>
+        <v>16.3371928934422</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2900,25 +2955,25 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>99</v>
       </c>
       <c r="D57">
-        <v>48.187546651901897</v>
+        <v>48.191425114398697</v>
       </c>
       <c r="E57">
-        <v>16.305031084672301</v>
+        <v>16.4141405460595</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2927,19 +2982,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <v>99</v>
       </c>
       <c r="D58">
-        <v>48.197642239755503</v>
+        <v>48.180439246243203</v>
       </c>
       <c r="E58">
-        <v>16.320080048337701</v>
+        <v>16.412065829472301</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -2954,19 +3009,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>99</v>
       </c>
       <c r="D59">
-        <v>48.211550222471303</v>
+        <v>48.190867982179199</v>
       </c>
       <c r="E59">
-        <v>16.339161406618999</v>
+        <v>16.3375114209149</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
@@ -2981,25 +3036,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60">
         <v>99</v>
       </c>
       <c r="D60">
-        <v>48.232861845873003</v>
+        <v>48.237255632164</v>
       </c>
       <c r="E60">
-        <v>16.416496832133301</v>
+        <v>16.380131011741501</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3008,19 +3063,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <v>99</v>
       </c>
       <c r="D61">
-        <v>48.197558621915299</v>
+        <v>48.2093447703745</v>
       </c>
       <c r="E61">
-        <v>16.399882982436001</v>
+        <v>16.365412433048899</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
@@ -3035,19 +3090,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62">
         <v>99</v>
       </c>
       <c r="D62">
-        <v>48.200461908387297</v>
+        <v>48.187546651901897</v>
       </c>
       <c r="E62">
-        <v>16.368679459080099</v>
+        <v>16.305031084672301</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
@@ -3062,25 +3117,25 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>99</v>
       </c>
       <c r="D63">
-        <v>48.179192090746</v>
+        <v>48.197642239755503</v>
       </c>
       <c r="E63">
-        <v>16.3761836340366</v>
+        <v>16.320080048337701</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3089,25 +3144,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64">
         <v>99</v>
       </c>
       <c r="D64">
-        <v>48.196614938120703</v>
+        <v>48.211550222471303</v>
       </c>
       <c r="E64">
-        <v>16.357976518583701</v>
+        <v>16.339161406618999</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3116,25 +3171,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>99</v>
       </c>
       <c r="D65">
-        <v>48.1991725051343</v>
+        <v>48.232861845873003</v>
       </c>
       <c r="E65">
-        <v>16.3522751088353</v>
+        <v>16.416496832133301</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3143,19 +3198,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66">
         <v>99</v>
       </c>
       <c r="D66">
-        <v>48.206301017717301</v>
+        <v>48.197558621915299</v>
       </c>
       <c r="E66">
-        <v>16.3839158186181</v>
+        <v>16.399882982436001</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
@@ -3170,25 +3225,25 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>99</v>
       </c>
       <c r="D67">
-        <v>48.221281121207802</v>
+        <v>48.200461908387297</v>
       </c>
       <c r="E67">
-        <v>16.344276994169501</v>
+        <v>16.368679459080099</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3197,25 +3252,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>99</v>
       </c>
       <c r="D68">
-        <v>48.180776249100902</v>
+        <v>48.179192090746</v>
       </c>
       <c r="E68">
-        <v>16.331180131750799</v>
+        <v>16.3761836340366</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3224,25 +3279,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>99</v>
       </c>
       <c r="D69">
-        <v>48.231323460580803</v>
+        <v>48.196614938120703</v>
       </c>
       <c r="E69">
-        <v>16.352435723682099</v>
+        <v>16.357976518583701</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3251,25 +3306,25 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70">
         <v>99</v>
       </c>
       <c r="D70">
-        <v>48.192239540974803</v>
+        <v>48.1991725051343</v>
       </c>
       <c r="E70">
-        <v>16.276205909609502</v>
+        <v>16.3522751088353</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3278,25 +3333,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>99</v>
       </c>
       <c r="D71">
-        <v>48.136886078204199</v>
+        <v>48.206301017717301</v>
       </c>
       <c r="E71">
-        <v>16.313447385677701</v>
+        <v>16.3839158186181</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3305,19 +3360,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72">
         <v>99</v>
       </c>
       <c r="D72">
-        <v>48.174201770401297</v>
+        <v>48.221281121207802</v>
       </c>
       <c r="E72">
-        <v>16.3314961287012</v>
+        <v>16.344276994169501</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
@@ -3332,25 +3387,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73">
         <v>99</v>
       </c>
       <c r="D73">
-        <v>48.192031302903899</v>
+        <v>48.180776249100902</v>
       </c>
       <c r="E73">
-        <v>16.354241098311199</v>
+        <v>16.331180131750799</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3359,25 +3414,25 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>99</v>
       </c>
       <c r="D74">
-        <v>48.199796591292497</v>
+        <v>48.231323460580803</v>
       </c>
       <c r="E74">
-        <v>16.3113939494243</v>
+        <v>16.352435723682099</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3386,25 +3441,25 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>99</v>
       </c>
       <c r="D75">
-        <v>48.218871301428003</v>
+        <v>48.192239540974803</v>
       </c>
       <c r="E75">
-        <v>16.391381828582801</v>
+        <v>16.276205909609502</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3413,25 +3468,25 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>99</v>
       </c>
       <c r="D76">
-        <v>48.2356312778427</v>
+        <v>48.136886078204199</v>
       </c>
       <c r="E76">
-        <v>16.358433430790001</v>
+        <v>16.313447385677701</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3440,25 +3495,25 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>99</v>
       </c>
       <c r="D77">
-        <v>48.202085261385697</v>
+        <v>48.174201770401297</v>
       </c>
       <c r="E77">
-        <v>16.3922538196944</v>
+        <v>16.3314961287012</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3467,19 +3522,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>99</v>
       </c>
       <c r="D78">
-        <v>48.222256371270298</v>
+        <v>48.192031302903899</v>
       </c>
       <c r="E78">
-        <v>16.367568667360299</v>
+        <v>16.354241098311199</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -3494,25 +3549,25 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>99</v>
       </c>
       <c r="D79">
-        <v>48.217146092964299</v>
+        <v>48.199796591292497</v>
       </c>
       <c r="E79">
-        <v>16.371244989355699</v>
+        <v>16.3113939494243</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3521,19 +3576,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>99</v>
       </c>
       <c r="D80">
-        <v>48.211805714655902</v>
+        <v>48.218871301428003</v>
       </c>
       <c r="E80">
-        <v>16.3783661729078</v>
+        <v>16.391381828582801</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
@@ -3548,25 +3603,25 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>99</v>
       </c>
       <c r="D81">
-        <v>48.194414017458499</v>
+        <v>48.2356312778427</v>
       </c>
       <c r="E81">
-        <v>16.406748730417199</v>
+        <v>16.358433430790001</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3575,19 +3630,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82">
         <v>99</v>
       </c>
       <c r="D82">
-        <v>48.197800812797901</v>
+        <v>48.202085261385697</v>
       </c>
       <c r="E82">
-        <v>16.328518689581301</v>
+        <v>16.3922538196944</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -3602,19 +3657,19 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>99</v>
       </c>
       <c r="D83">
-        <v>48.202808579018303</v>
+        <v>48.222256371270298</v>
       </c>
       <c r="E83">
-        <v>16.379578467601899</v>
+        <v>16.367568667360299</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
@@ -3629,25 +3684,25 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>48.204540181864402</v>
+        <v>48.217146092964299</v>
       </c>
       <c r="E84">
-        <v>16.3091474289552</v>
+        <v>16.371244989355699</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3656,19 +3711,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>99</v>
       </c>
       <c r="D85">
-        <v>48.208046834199401</v>
+        <v>48.211805714655902</v>
       </c>
       <c r="E85">
-        <v>16.3715306120903</v>
+        <v>16.3783661729078</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
@@ -3683,25 +3738,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>99</v>
       </c>
       <c r="D86">
-        <v>48.193916076791602</v>
+        <v>48.194414017458499</v>
       </c>
       <c r="E86">
-        <v>16.370341054127302</v>
+        <v>16.406748730417199</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3710,25 +3765,25 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>99</v>
       </c>
       <c r="D87">
-        <v>48.2078009691215</v>
+        <v>48.197800812797901</v>
       </c>
       <c r="E87">
-        <v>16.338015523652398</v>
+        <v>16.328518689581301</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3737,25 +3792,25 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>99</v>
       </c>
       <c r="D88">
-        <v>48.1648596901655</v>
+        <v>48.202808579018303</v>
       </c>
       <c r="E88">
-        <v>16.327668774911601</v>
+        <v>16.379578467601899</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3764,25 +3819,25 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>99</v>
       </c>
       <c r="D89">
-        <v>48.191127863278602</v>
+        <v>48.204540181864402</v>
       </c>
       <c r="E89">
-        <v>16.285948386992299</v>
+        <v>16.3091474289552</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3791,25 +3846,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>99</v>
       </c>
       <c r="D90">
-        <v>48.204915658283099</v>
+        <v>48.208046834199401</v>
       </c>
       <c r="E90">
-        <v>16.3582601366227</v>
+        <v>16.3715306120903</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3818,19 +3873,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>99</v>
       </c>
       <c r="D91">
-        <v>48.2236292672643</v>
+        <v>48.193916076791602</v>
       </c>
       <c r="E91">
-        <v>16.401076559650701</v>
+        <v>16.370341054127302</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -3845,25 +3900,25 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>99</v>
       </c>
       <c r="D92">
-        <v>48.195838255457602</v>
+        <v>48.2078009691215</v>
       </c>
       <c r="E92">
-        <v>16.3396016754645</v>
+        <v>16.338015523652398</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3872,19 +3927,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>99</v>
       </c>
       <c r="D93">
-        <v>48.150727425264598</v>
+        <v>48.1648596901655</v>
       </c>
       <c r="E93">
-        <v>16.316875926933299</v>
+        <v>16.327668774911601</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
@@ -3899,25 +3954,25 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94">
         <v>99</v>
       </c>
       <c r="D94">
-        <v>48.225586839174298</v>
+        <v>48.191127863278602</v>
       </c>
       <c r="E94">
-        <v>16.349500070214798</v>
+        <v>16.285948386992299</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3926,19 +3981,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95">
         <v>99</v>
       </c>
       <c r="D95">
-        <v>48.1970803711367</v>
+        <v>48.204915658283099</v>
       </c>
       <c r="E95">
-        <v>16.3459802174687</v>
+        <v>16.3582601366227</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
@@ -3953,25 +4008,25 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96">
         <v>99</v>
       </c>
       <c r="D96">
-        <v>48.214526571260997</v>
+        <v>48.2236292672643</v>
       </c>
       <c r="E96">
-        <v>16.361836178517599</v>
+        <v>16.401076559650701</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3980,25 +4035,25 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97">
         <v>99</v>
       </c>
       <c r="D97">
-        <v>48.246405762873401</v>
+        <v>48.195838255457602</v>
       </c>
       <c r="E97">
-        <v>16.394834441936599</v>
+        <v>16.3396016754645</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4007,19 +4062,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98">
         <v>99</v>
       </c>
       <c r="D98">
-        <v>48.241860535835002</v>
+        <v>48.150727425264598</v>
       </c>
       <c r="E98">
-        <v>16.385702894060199</v>
+        <v>16.316875926933299</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
@@ -4034,25 +4089,25 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99">
         <v>99</v>
       </c>
       <c r="D99">
-        <v>48.185143015384497</v>
+        <v>48.225586839174298</v>
       </c>
       <c r="E99">
-        <v>16.417467121381801</v>
+        <v>16.349500070214798</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4061,19 +4116,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>99</v>
       </c>
       <c r="D100">
-        <v>48.174718736083598</v>
+        <v>48.1970803711367</v>
       </c>
       <c r="E100">
-        <v>16.414796672573601</v>
+        <v>16.3459802174687</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
@@ -4088,19 +4143,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>99</v>
       </c>
       <c r="D101">
-        <v>48.219130313111201</v>
+        <v>48.214526571260997</v>
       </c>
       <c r="E101">
-        <v>16.381291851267001</v>
+        <v>16.361836178517599</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
@@ -4115,25 +4170,25 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102">
         <v>99</v>
       </c>
       <c r="D102">
-        <v>48.1969570149733</v>
+        <v>48.246405762873401</v>
       </c>
       <c r="E102">
-        <v>16.260835508353701</v>
+        <v>16.394834441936599</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4142,25 +4197,25 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103">
         <v>99</v>
       </c>
       <c r="D103">
-        <v>48.188483960992599</v>
+        <v>48.241860535835002</v>
       </c>
       <c r="E103">
-        <v>16.342954397677602</v>
+        <v>16.385702894060199</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4169,25 +4224,25 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>99</v>
       </c>
       <c r="D104">
-        <v>48.18604725454</v>
+        <v>48.185143015384497</v>
       </c>
       <c r="E104">
-        <v>16.3189556071334</v>
+        <v>16.417467121381801</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4196,25 +4251,25 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>99</v>
       </c>
       <c r="D105">
-        <v>48.1607153820297</v>
+        <v>48.174718736083598</v>
       </c>
       <c r="E105">
-        <v>16.324229809458199</v>
+        <v>16.414796672573601</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4223,25 +4278,25 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106">
         <v>99</v>
       </c>
       <c r="D106">
-        <v>48.206816355148803</v>
+        <v>48.219130313111201</v>
       </c>
       <c r="E106">
-        <v>16.3791309479708</v>
+        <v>16.381291851267001</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4250,50 +4305,173 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107">
         <v>99</v>
       </c>
       <c r="D107">
+        <v>48.1969570149733</v>
+      </c>
+      <c r="E107">
+        <v>16.260835508353701</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>99</v>
+      </c>
+      <c r="D108">
+        <v>48.188483960992599</v>
+      </c>
+      <c r="E108">
+        <v>16.342954397677602</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>4</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+      <c r="D109">
+        <v>48.18604725454</v>
+      </c>
+      <c r="E109">
+        <v>16.3189556071334</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>99</v>
+      </c>
+      <c r="D110">
+        <v>48.1607153820297</v>
+      </c>
+      <c r="E110">
+        <v>16.324229809458199</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>6</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>99</v>
+      </c>
+      <c r="D111">
+        <v>48.206816355148803</v>
+      </c>
+      <c r="E111">
+        <v>16.3791309479708</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>99</v>
+      </c>
+      <c r="D112">
         <v>48.169649232274203</v>
       </c>
-      <c r="E107">
+      <c r="E112">
         <v>16.4207002221215</v>
       </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="J107" s="1"/>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{380A743C-C4F0-4178-B8D0-3811A430B4AB}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{E660982F-7C5E-484B-BCCA-0861A28015A9}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{B16A2615-02BB-44E9-A012-F8B91ACFF94A}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{13F4AAFF-9D9D-4EA4-8431-905E98401148}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{4C0F0843-431F-4E38-B1A6-766B7F4C1DFF}"/>
-    <hyperlink ref="I3" r:id="rId6" xr:uid="{072C1CD6-41DA-404D-BF7F-1625F5EEB603}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{1C1E9C2C-D27D-48FB-A9A0-32EC4BE0F46D}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{6F6C6EFD-4425-4B5C-BEA1-3E8F0487ACF5}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{6B58CF8E-197B-44D5-9FA2-FF9C5B8325B9}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{0AAF37AA-CE92-440C-BC39-9B7AACD37EED}"/>
-    <hyperlink ref="I7" r:id="rId11" xr:uid="{616F26F2-8B9C-4F10-8695-3608EB85AF68}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{37F5FE2C-4372-4EA0-94D0-B9782456EAE5}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{A892E87D-08AD-422E-9869-BD063056F2CC}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://asset.dibeo.at/467/83754b3583a04836848fc2b0831bdaa4/big-webp/wohnzimmer.webp" xr:uid="{052622E6-D87E-47DB-BEA9-706D4BD8DCE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C2767-6246-4427-B3BD-4A81CD8A8CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E1902-5F10-4291-9643-F1346DFF6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,8 +1813,8 @@
       <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>15.08</v>
+      <c r="B15" s="11">
+        <v>45153</v>
       </c>
       <c r="C15">
         <v>3</v>

--- a/230725-map.xlsx
+++ b/230725-map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timon\Documents\08-Unterlagen\02-Wohnungen\03-Wien\Wohnungssuche-Alina-Timon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E1902-5F10-4291-9643-F1346DFF6886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F44A0B-8F6B-4A70-8B38-412DD8BE49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <t>Bezirk</t>
   </si>
@@ -436,6 +436,72 @@
   </si>
   <si>
     <t>https://www.immobilienscout24.at/expose/64b53368277557516bdc4bfc</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0015I00000eKQSW-b41f64b511b94e00981d0f697cce8c9d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/63fbb162359ced4bd48c5479</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r0y-1672869236-9306a7ce5d1041aeb20fde076bf2104a</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64be8325ce7e1827ef88887f</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3rCX-0ac6f64db48246399d89f8b11452f88d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64a27bbdb329cf9d73b2faca</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3rDV-1681994989-99f91cfe200642738ac0b76911edaddd</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64411e0710ab64615fd5d771</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83Xq-1532449803-1b334ad158004d7c9ac6d5e531bf298d</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64ae8352151a4e9dd71b259e</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r8I-1689692457-2dc7e81244ff4a8591b5f166bddc7eb5</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b694764b1cf154771f6298</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3qyD-1683834070-fb47731093d74748b5fe6369bab3ac08</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64778daebae09b50ac941662</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/dims3/S3/quality/80/legacy_thumbnail/804x536/format/webp/https://s3-eu-west-1.amazonaws.com/prod.www.immobilienscout24.at/012.0012000001E8454-1690287352-fb3c755ea92b46439c19f9fba9ccac51</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64c13050f559efdbd1315b9c</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E83tC-1506364645-94f6d35f7dff467dba7ce6f64423a268</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64c27bba31a7b225b411981b</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0012000001E3r8e-1688422058-a3adfa3500964a7cb146c852609b8f34</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64a32ac8b916c2323b0948a7</t>
+  </si>
+  <si>
+    <t>https://pictures.immobilienscout24.de/prod.www.immobilienscout24.at/pictureserver/loadPicture?q=70&amp;id=012.0010J00001vIdYP-1526316842-91f2a22e0a6745bf8c60ed3c21e33d74</t>
+  </si>
+  <si>
+    <t>https://www.immobilienscout24.at/expose/64b5544d2b531223e8974c87</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1006,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -953,6 +1019,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20 % - Akzent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1068,7 +1135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J112" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE8F3157-D842-443B-B3C9-9B5FC9CBDEB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:J123" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{120A287D-AD35-45A8-9233-E675B2648171}" name="Nummer" dataDxfId="3" dataCellStyle="Link"/>
     <tableColumn id="2" xr3:uid="{78D251F9-3E5F-48CE-8E4B-26C49F13AB0D}" name="Bezugsdatum" dataDxfId="2" dataCellStyle="Link"/>
@@ -1348,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1874,305 +1941,355 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>48.195144623049103</v>
+      </c>
+      <c r="E17">
+        <v>16.403899197410301</v>
+      </c>
+      <c r="F17" s="12">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1397</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>48.187848282514999</v>
+      </c>
+      <c r="E18">
+        <v>16.368954197409899</v>
+      </c>
+      <c r="F18" s="12">
+        <v>110</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1498</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>48.194758078657998</v>
+      </c>
+      <c r="E19">
+        <v>16.369665653230498</v>
+      </c>
+      <c r="F19" s="12">
+        <v>96</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1467</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
+        <v>48.230805123040803</v>
+      </c>
+      <c r="E20">
+        <v>16.353221726517098</v>
+      </c>
+      <c r="F20" s="12">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1368</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>99</v>
-      </c>
-      <c r="D17">
-        <v>48.183644993163902</v>
-      </c>
-      <c r="E17">
-        <v>16.327764778217102</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
+        <v>48.2287924500489</v>
+      </c>
+      <c r="E21">
+        <v>16.354899896970199</v>
+      </c>
+      <c r="F21" s="12">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1472</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>48.182491796168001</v>
+      </c>
+      <c r="E22">
+        <v>16.360931040537601</v>
+      </c>
+      <c r="F22" s="12">
+        <v>95</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>998</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>99</v>
-      </c>
-      <c r="D18">
-        <v>48.227767239604397</v>
-      </c>
-      <c r="E18">
-        <v>16.364011620482898</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="D23" s="5">
+        <v>48.192512483595202</v>
+      </c>
+      <c r="E23">
+        <v>16.3741518025925</v>
+      </c>
+      <c r="F23" s="12">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1476</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>48.193016214980702</v>
+      </c>
+      <c r="E24">
+        <v>16.387617110902301</v>
+      </c>
+      <c r="F24" s="12">
+        <v>116</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>99</v>
-      </c>
-      <c r="D19">
-        <v>48.248451460447001</v>
-      </c>
-      <c r="E19">
-        <v>16.365810794397799</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="H24" s="2">
+        <v>1490</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="F25" s="12">
+        <v>112</v>
+      </c>
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>99</v>
-      </c>
-      <c r="D20">
-        <v>48.1848015142332</v>
-      </c>
-      <c r="E20">
-        <v>16.334943316802502</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>99</v>
-      </c>
-      <c r="D21">
-        <v>48.130515204099098</v>
-      </c>
-      <c r="E21">
-        <v>16.3098375340189</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="H25" s="2">
+        <v>1350</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>99</v>
-      </c>
-      <c r="D22">
-        <v>48.235217131100498</v>
-      </c>
-      <c r="E22">
-        <v>16.368636832930299</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5">
+        <v>48.190577086674701</v>
+      </c>
+      <c r="E26">
+        <v>16.371605643582502</v>
+      </c>
+      <c r="F26" s="12">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1120</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>99</v>
-      </c>
-      <c r="D23">
-        <v>48.141921600787903</v>
-      </c>
-      <c r="E23">
-        <v>16.316531068234401</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>99</v>
-      </c>
-      <c r="D24">
-        <v>48.256204731052698</v>
-      </c>
-      <c r="E24">
-        <v>16.400442533397499</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>99</v>
-      </c>
-      <c r="D25">
-        <v>48.226254178910303</v>
-      </c>
-      <c r="E25">
-        <v>16.508438129988999</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>99</v>
-      </c>
-      <c r="D26">
-        <v>48.219817359097704</v>
-      </c>
-      <c r="E26">
-        <v>16.449662667515199</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>99</v>
-      </c>
-      <c r="D27">
-        <v>48.233409768503201</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
+        <v>48.205897240565697</v>
       </c>
       <c r="E27">
-        <v>16.485772626975599</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
+        <v>16.3366343650986</v>
+      </c>
+      <c r="F27" s="12">
+        <v>71</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>958</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>6</v>
@@ -2181,16 +2298,16 @@
         <v>99</v>
       </c>
       <c r="D28">
-        <v>48.222523966125998</v>
+        <v>48.183644993163902</v>
       </c>
       <c r="E28">
-        <v>16.474871718755502</v>
+        <v>16.327764778217102</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2199,7 +2316,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
@@ -2208,16 +2325,16 @@
         <v>99</v>
       </c>
       <c r="D29">
-        <v>48.219419110545097</v>
+        <v>48.227767239604397</v>
       </c>
       <c r="E29">
-        <v>16.466612161098698</v>
+        <v>16.364011620482898</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2226,7 +2343,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
@@ -2235,16 +2352,16 @@
         <v>99</v>
       </c>
       <c r="D30">
-        <v>48.220896078368298</v>
+        <v>48.248451460447001</v>
       </c>
       <c r="E30">
-        <v>16.457749951315201</v>
+        <v>16.365810794397799</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2253,7 +2370,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -2262,16 +2379,16 @@
         <v>99</v>
       </c>
       <c r="D31">
-        <v>48.211768603479896</v>
+        <v>48.1848015142332</v>
       </c>
       <c r="E31">
-        <v>16.440125089908801</v>
+        <v>16.334943316802502</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2280,7 +2397,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>6</v>
@@ -2289,16 +2406,16 @@
         <v>99</v>
       </c>
       <c r="D32">
-        <v>48.2345079150533</v>
+        <v>48.130515204099098</v>
       </c>
       <c r="E32">
-        <v>16.5044937908843</v>
+        <v>16.3098375340189</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2307,7 +2424,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>6</v>
@@ -2316,16 +2433,16 @@
         <v>99</v>
       </c>
       <c r="D33">
-        <v>48.2064650265471</v>
+        <v>48.235217131100498</v>
       </c>
       <c r="E33">
-        <v>16.431617486203798</v>
+        <v>16.368636832930299</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2334,7 +2451,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>6</v>
@@ -2343,16 +2460,16 @@
         <v>99</v>
       </c>
       <c r="D34">
-        <v>48.210671402885502</v>
+        <v>48.141921600787903</v>
       </c>
       <c r="E34">
-        <v>16.420255255579601</v>
+        <v>16.316531068234401</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2361,7 +2478,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>6</v>
@@ -2370,16 +2487,16 @@
         <v>99</v>
       </c>
       <c r="D35">
-        <v>48.214686271632097</v>
+        <v>48.256204731052698</v>
       </c>
       <c r="E35">
-        <v>16.413752066012002</v>
+        <v>16.400442533397499</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2388,7 +2505,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>6</v>
@@ -2397,10 +2514,10 @@
         <v>99</v>
       </c>
       <c r="D36">
-        <v>48.217792010671999</v>
+        <v>48.226254178910303</v>
       </c>
       <c r="E36">
-        <v>16.404963120853299</v>
+        <v>16.508438129988999</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -2415,7 +2532,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>6</v>
@@ -2424,16 +2541,16 @@
         <v>99</v>
       </c>
       <c r="D37">
-        <v>48.277517865692502</v>
+        <v>48.219817359097704</v>
       </c>
       <c r="E37">
-        <v>16.452139552735201</v>
+        <v>16.449662667515199</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2442,7 +2559,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>6</v>
@@ -2451,16 +2568,16 @@
         <v>99</v>
       </c>
       <c r="D38">
-        <v>48.271010765636902</v>
+        <v>48.233409768503201</v>
       </c>
       <c r="E38">
-        <v>16.4478823771306</v>
+        <v>16.485772626975599</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2469,7 +2586,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -2478,16 +2595,16 @@
         <v>99</v>
       </c>
       <c r="D39">
-        <v>48.238337984732603</v>
+        <v>48.222523966125998</v>
       </c>
       <c r="E39">
-        <v>16.424901236767599</v>
+        <v>16.474871718755502</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2496,7 +2613,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>6</v>
@@ -2505,16 +2622,16 @@
         <v>99</v>
       </c>
       <c r="D40">
-        <v>48.2634204838904</v>
+        <v>48.219419110545097</v>
       </c>
       <c r="E40">
-        <v>16.451625918740199</v>
+        <v>16.466612161098698</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2523,7 +2640,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>6</v>
@@ -2532,16 +2649,16 @@
         <v>99</v>
       </c>
       <c r="D41">
-        <v>48.215091449058001</v>
+        <v>48.220896078368298</v>
       </c>
       <c r="E41">
-        <v>16.385113644869399</v>
+        <v>16.457749951315201</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2550,7 +2667,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
@@ -2559,16 +2676,16 @@
         <v>99</v>
       </c>
       <c r="D42">
-        <v>48.257602853521902</v>
+        <v>48.211768603479896</v>
       </c>
       <c r="E42">
-        <v>16.449641645714301</v>
+        <v>16.440125089908801</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2577,7 +2694,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>6</v>
@@ -2586,16 +2703,16 @@
         <v>99</v>
       </c>
       <c r="D43">
-        <v>48.229227673623001</v>
+        <v>48.2345079150533</v>
       </c>
       <c r="E43">
-        <v>16.4113600875705</v>
+        <v>16.5044937908843</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2604,7 +2721,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -2613,16 +2730,16 @@
         <v>99</v>
       </c>
       <c r="D44">
-        <v>48.187145905485302</v>
+        <v>48.2064650265471</v>
       </c>
       <c r="E44">
-        <v>16.373613136637299</v>
+        <v>16.431617486203798</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2631,7 +2748,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -2640,16 +2757,16 @@
         <v>99</v>
       </c>
       <c r="D45">
-        <v>48.250222543967702</v>
+        <v>48.210671402885502</v>
       </c>
       <c r="E45">
-        <v>16.443256524414501</v>
+        <v>16.420255255579601</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2658,7 +2775,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
@@ -2667,16 +2784,16 @@
         <v>99</v>
       </c>
       <c r="D46">
-        <v>48.242959213349003</v>
+        <v>48.214686271632097</v>
       </c>
       <c r="E46">
-        <v>16.432858206625799</v>
+        <v>16.413752066012002</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2685,7 +2802,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -2694,16 +2811,16 @@
         <v>99</v>
       </c>
       <c r="D47">
-        <v>48.174989952355297</v>
+        <v>48.217792010671999</v>
       </c>
       <c r="E47">
-        <v>16.377905052346598</v>
+        <v>16.404963120853299</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2712,7 +2829,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -2721,16 +2838,16 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>48.211059149435798</v>
+        <v>48.277517865692502</v>
       </c>
       <c r="E48">
-        <v>16.311366713192299</v>
+        <v>16.452139552735201</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2739,7 +2856,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -2748,10 +2865,10 @@
         <v>99</v>
       </c>
       <c r="D49">
-        <v>48.153632091104797</v>
+        <v>48.271010765636902</v>
       </c>
       <c r="E49">
-        <v>16.3823650872299</v>
+        <v>16.4478823771306</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -2766,7 +2883,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -2775,10 +2892,10 @@
         <v>99</v>
       </c>
       <c r="D50">
-        <v>48.161948857712801</v>
+        <v>48.238337984732603</v>
       </c>
       <c r="E50">
-        <v>16.3832292708537</v>
+        <v>16.424901236767599</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -2793,7 +2910,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>6</v>
@@ -2802,10 +2919,10 @@
         <v>99</v>
       </c>
       <c r="D51">
-        <v>48.142191451525598</v>
+        <v>48.2634204838904</v>
       </c>
       <c r="E51">
-        <v>16.400430201566301</v>
+        <v>16.451625918740199</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2820,7 +2937,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>6</v>
@@ -2829,10 +2946,10 @@
         <v>99</v>
       </c>
       <c r="D52">
-        <v>48.1691627655959</v>
+        <v>48.215091449058001</v>
       </c>
       <c r="E52">
-        <v>16.380315900921801</v>
+        <v>16.385113644869399</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
@@ -2847,7 +2964,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>6</v>
@@ -2856,10 +2973,10 @@
         <v>99</v>
       </c>
       <c r="D53">
-        <v>48.145589417483002</v>
+        <v>48.257602853521902</v>
       </c>
       <c r="E53">
-        <v>16.3865542933024</v>
+        <v>16.449641645714301</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -2874,7 +2991,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
@@ -2883,16 +3000,16 @@
         <v>99</v>
       </c>
       <c r="D54">
-        <v>48.216775002793597</v>
+        <v>48.229227673623001</v>
       </c>
       <c r="E54">
-        <v>16.3418152487261</v>
+        <v>16.4113600875705</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2901,7 +3018,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
@@ -2910,16 +3027,16 @@
         <v>99</v>
       </c>
       <c r="D55">
-        <v>48.189412360620402</v>
+        <v>48.187145905485302</v>
       </c>
       <c r="E55">
-        <v>16.295803553490099</v>
+        <v>16.373613136637299</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2928,7 +3045,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
@@ -2937,16 +3054,16 @@
         <v>99</v>
       </c>
       <c r="D56">
-        <v>48.203365085364901</v>
+        <v>48.250222543967702</v>
       </c>
       <c r="E56">
-        <v>16.3371928934422</v>
+        <v>16.443256524414501</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2955,7 +3072,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
@@ -2964,16 +3081,16 @@
         <v>99</v>
       </c>
       <c r="D57">
-        <v>48.191425114398697</v>
+        <v>48.242959213349003</v>
       </c>
       <c r="E57">
-        <v>16.4141405460595</v>
+        <v>16.432858206625799</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2982,7 +3099,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>6</v>
@@ -2991,16 +3108,16 @@
         <v>99</v>
       </c>
       <c r="D58">
-        <v>48.180439246243203</v>
+        <v>48.174989952355297</v>
       </c>
       <c r="E58">
-        <v>16.412065829472301</v>
+        <v>16.377905052346598</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3009,7 +3126,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>6</v>
@@ -3018,16 +3135,16 @@
         <v>99</v>
       </c>
       <c r="D59">
-        <v>48.190867982179199</v>
+        <v>48.211059149435798</v>
       </c>
       <c r="E59">
-        <v>16.3375114209149</v>
+        <v>16.311366713192299</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3036,7 +3153,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>6</v>
@@ -3045,16 +3162,16 @@
         <v>99</v>
       </c>
       <c r="D60">
-        <v>48.237255632164</v>
+        <v>48.153632091104797</v>
       </c>
       <c r="E60">
-        <v>16.380131011741501</v>
+        <v>16.3823650872299</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3063,7 +3180,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>6</v>
@@ -3072,16 +3189,16 @@
         <v>99</v>
       </c>
       <c r="D61">
-        <v>48.2093447703745</v>
+        <v>48.161948857712801</v>
       </c>
       <c r="E61">
-        <v>16.365412433048899</v>
+        <v>16.3832292708537</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3090,7 +3207,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>6</v>
@@ -3099,16 +3216,16 @@
         <v>99</v>
       </c>
       <c r="D62">
-        <v>48.187546651901897</v>
+        <v>48.142191451525598</v>
       </c>
       <c r="E62">
-        <v>16.305031084672301</v>
+        <v>16.400430201566301</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3117,7 +3234,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
@@ -3126,16 +3243,16 @@
         <v>99</v>
       </c>
       <c r="D63">
-        <v>48.197642239755503</v>
+        <v>48.1691627655959</v>
       </c>
       <c r="E63">
-        <v>16.320080048337701</v>
+        <v>16.380315900921801</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3144,7 +3261,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>6</v>
@@ -3153,16 +3270,16 @@
         <v>99</v>
       </c>
       <c r="D64">
-        <v>48.211550222471303</v>
+        <v>48.145589417483002</v>
       </c>
       <c r="E64">
-        <v>16.339161406618999</v>
+        <v>16.3865542933024</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3171,7 +3288,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>6</v>
@@ -3180,16 +3297,16 @@
         <v>99</v>
       </c>
       <c r="D65">
-        <v>48.232861845873003</v>
+        <v>48.216775002793597</v>
       </c>
       <c r="E65">
-        <v>16.416496832133301</v>
+        <v>16.3418152487261</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3198,7 +3315,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>6</v>
@@ -3207,16 +3324,16 @@
         <v>99</v>
       </c>
       <c r="D66">
-        <v>48.197558621915299</v>
+        <v>48.189412360620402</v>
       </c>
       <c r="E66">
-        <v>16.399882982436001</v>
+        <v>16.295803553490099</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3225,7 +3342,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
@@ -3234,16 +3351,16 @@
         <v>99</v>
       </c>
       <c r="D67">
-        <v>48.200461908387297</v>
+        <v>48.203365085364901</v>
       </c>
       <c r="E67">
-        <v>16.368679459080099</v>
+        <v>16.3371928934422</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3252,7 +3369,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>6</v>
@@ -3261,16 +3378,16 @@
         <v>99</v>
       </c>
       <c r="D68">
-        <v>48.179192090746</v>
+        <v>48.191425114398697</v>
       </c>
       <c r="E68">
-        <v>16.3761836340366</v>
+        <v>16.4141405460595</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3279,7 +3396,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>6</v>
@@ -3288,16 +3405,16 @@
         <v>99</v>
       </c>
       <c r="D69">
-        <v>48.196614938120703</v>
+        <v>48.180439246243203</v>
       </c>
       <c r="E69">
-        <v>16.357976518583701</v>
+        <v>16.412065829472301</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3306,7 +3423,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>6</v>
@@ -3315,16 +3432,16 @@
         <v>99</v>
       </c>
       <c r="D70">
-        <v>48.1991725051343</v>
+        <v>48.190867982179199</v>
       </c>
       <c r="E70">
-        <v>16.3522751088353</v>
+        <v>16.3375114209149</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3333,7 +3450,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>6</v>
@@ -3342,16 +3459,16 @@
         <v>99</v>
       </c>
       <c r="D71">
-        <v>48.206301017717301</v>
+        <v>48.237255632164</v>
       </c>
       <c r="E71">
-        <v>16.3839158186181</v>
+        <v>16.380131011741501</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3360,7 +3477,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>6</v>
@@ -3369,16 +3486,16 @@
         <v>99</v>
       </c>
       <c r="D72">
-        <v>48.221281121207802</v>
+        <v>48.2093447703745</v>
       </c>
       <c r="E72">
-        <v>16.344276994169501</v>
+        <v>16.365412433048899</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3387,7 +3504,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>6</v>
@@ -3396,16 +3513,16 @@
         <v>99</v>
       </c>
       <c r="D73">
-        <v>48.180776249100902</v>
+        <v>48.187546651901897</v>
       </c>
       <c r="E73">
-        <v>16.331180131750799</v>
+        <v>16.305031084672301</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3414,7 +3531,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>6</v>
@@ -3423,16 +3540,16 @@
         <v>99</v>
       </c>
       <c r="D74">
-        <v>48.231323460580803</v>
+        <v>48.197642239755503</v>
       </c>
       <c r="E74">
-        <v>16.352435723682099</v>
+        <v>16.320080048337701</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3441,7 +3558,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>6</v>
@@ -3450,16 +3567,16 @@
         <v>99</v>
       </c>
       <c r="D75">
-        <v>48.192239540974803</v>
+        <v>48.211550222471303</v>
       </c>
       <c r="E75">
-        <v>16.276205909609502</v>
+        <v>16.339161406618999</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3468,7 +3585,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>6</v>
@@ -3477,16 +3594,16 @@
         <v>99</v>
       </c>
       <c r="D76">
-        <v>48.136886078204199</v>
+        <v>48.232861845873003</v>
       </c>
       <c r="E76">
-        <v>16.313447385677701</v>
+        <v>16.416496832133301</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3495,7 +3612,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>6</v>
@@ -3504,16 +3621,16 @@
         <v>99</v>
       </c>
       <c r="D77">
-        <v>48.174201770401297</v>
+        <v>48.197558621915299</v>
       </c>
       <c r="E77">
-        <v>16.3314961287012</v>
+        <v>16.399882982436001</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3522,7 +3639,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>6</v>
@@ -3531,10 +3648,10 @@
         <v>99</v>
       </c>
       <c r="D78">
-        <v>48.192031302903899</v>
+        <v>48.200461908387297</v>
       </c>
       <c r="E78">
-        <v>16.354241098311199</v>
+        <v>16.368679459080099</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -3549,7 +3666,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
@@ -3558,16 +3675,16 @@
         <v>99</v>
       </c>
       <c r="D79">
-        <v>48.199796591292497</v>
+        <v>48.179192090746</v>
       </c>
       <c r="E79">
-        <v>16.3113939494243</v>
+        <v>16.3761836340366</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3576,7 +3693,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -3585,16 +3702,16 @@
         <v>99</v>
       </c>
       <c r="D80">
-        <v>48.218871301428003</v>
+        <v>48.196614938120703</v>
       </c>
       <c r="E80">
-        <v>16.391381828582801</v>
+        <v>16.357976518583701</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3603,7 +3720,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
@@ -3612,16 +3729,16 @@
         <v>99</v>
       </c>
       <c r="D81">
-        <v>48.2356312778427</v>
+        <v>48.1991725051343</v>
       </c>
       <c r="E81">
-        <v>16.358433430790001</v>
+        <v>16.3522751088353</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3630,7 +3747,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>6</v>
@@ -3639,10 +3756,10 @@
         <v>99</v>
       </c>
       <c r="D82">
-        <v>48.202085261385697</v>
+        <v>48.206301017717301</v>
       </c>
       <c r="E82">
-        <v>16.3922538196944</v>
+        <v>16.3839158186181</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -3657,7 +3774,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>6</v>
@@ -3666,16 +3783,16 @@
         <v>99</v>
       </c>
       <c r="D83">
-        <v>48.222256371270298</v>
+        <v>48.221281121207802</v>
       </c>
       <c r="E83">
-        <v>16.367568667360299</v>
+        <v>16.344276994169501</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3684,7 +3801,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>6</v>
@@ -3693,16 +3810,16 @@
         <v>99</v>
       </c>
       <c r="D84">
-        <v>48.217146092964299</v>
+        <v>48.180776249100902</v>
       </c>
       <c r="E84">
-        <v>16.371244989355699</v>
+        <v>16.331180131750799</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3711,7 +3828,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>6</v>
@@ -3720,16 +3837,16 @@
         <v>99</v>
       </c>
       <c r="D85">
-        <v>48.211805714655902</v>
+        <v>48.231323460580803</v>
       </c>
       <c r="E85">
-        <v>16.3783661729078</v>
+        <v>16.352435723682099</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3738,7 +3855,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>6</v>
@@ -3747,16 +3864,16 @@
         <v>99</v>
       </c>
       <c r="D86">
-        <v>48.194414017458499</v>
+        <v>48.192239540974803</v>
       </c>
       <c r="E86">
-        <v>16.406748730417199</v>
+        <v>16.276205909609502</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3765,7 +3882,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>6</v>
@@ -3774,16 +3891,16 @@
         <v>99</v>
       </c>
       <c r="D87">
-        <v>48.197800812797901</v>
+        <v>48.136886078204199</v>
       </c>
       <c r="E87">
-        <v>16.328518689581301</v>
+        <v>16.313447385677701</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3792,7 +3909,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>6</v>
@@ -3801,16 +3918,16 @@
         <v>99</v>
       </c>
       <c r="D88">
-        <v>48.202808579018303</v>
+        <v>48.174201770401297</v>
       </c>
       <c r="E88">
-        <v>16.379578467601899</v>
+        <v>16.3314961287012</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3819,7 +3936,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>6</v>
@@ -3828,16 +3945,16 @@
         <v>99</v>
       </c>
       <c r="D89">
-        <v>48.204540181864402</v>
+        <v>48.192031302903899</v>
       </c>
       <c r="E89">
-        <v>16.3091474289552</v>
+        <v>16.354241098311199</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3846,7 +3963,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>6</v>
@@ -3855,16 +3972,16 @@
         <v>99</v>
       </c>
       <c r="D90">
-        <v>48.208046834199401</v>
+        <v>48.199796591292497</v>
       </c>
       <c r="E90">
-        <v>16.3715306120903</v>
+        <v>16.3113939494243</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3873,7 +3990,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>6</v>
@@ -3882,10 +3999,10 @@
         <v>99</v>
       </c>
       <c r="D91">
-        <v>48.193916076791602</v>
+        <v>48.218871301428003</v>
       </c>
       <c r="E91">
-        <v>16.370341054127302</v>
+        <v>16.391381828582801</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -3900,7 +4017,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>6</v>
@@ -3909,16 +4026,16 @@
         <v>99</v>
       </c>
       <c r="D92">
-        <v>48.2078009691215</v>
+        <v>48.2356312778427</v>
       </c>
       <c r="E92">
-        <v>16.338015523652398</v>
+        <v>16.358433430790001</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3927,7 +4044,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>6</v>
@@ -3936,16 +4053,16 @@
         <v>99</v>
       </c>
       <c r="D93">
-        <v>48.1648596901655</v>
+        <v>48.202085261385697</v>
       </c>
       <c r="E93">
-        <v>16.327668774911601</v>
+        <v>16.3922538196944</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3954,7 +4071,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -3963,10 +4080,10 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>48.191127863278602</v>
+        <v>48.222256371270298</v>
       </c>
       <c r="E94">
-        <v>16.285948386992299</v>
+        <v>16.367568667360299</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -3981,7 +4098,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -3990,16 +4107,16 @@
         <v>99</v>
       </c>
       <c r="D95">
-        <v>48.204915658283099</v>
+        <v>48.217146092964299</v>
       </c>
       <c r="E95">
-        <v>16.3582601366227</v>
+        <v>16.371244989355699</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4008,7 +4125,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>6</v>
@@ -4017,10 +4134,10 @@
         <v>99</v>
       </c>
       <c r="D96">
-        <v>48.2236292672643</v>
+        <v>48.211805714655902</v>
       </c>
       <c r="E96">
-        <v>16.401076559650701</v>
+        <v>16.3783661729078</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
@@ -4035,7 +4152,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>6</v>
@@ -4044,10 +4161,10 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>48.195838255457602</v>
+        <v>48.194414017458499</v>
       </c>
       <c r="E97">
-        <v>16.3396016754645</v>
+        <v>16.406748730417199</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
@@ -4062,7 +4179,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>6</v>
@@ -4071,16 +4188,16 @@
         <v>99</v>
       </c>
       <c r="D98">
-        <v>48.150727425264598</v>
+        <v>48.197800812797901</v>
       </c>
       <c r="E98">
-        <v>16.316875926933299</v>
+        <v>16.328518689581301</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4089,7 +4206,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>6</v>
@@ -4098,16 +4215,16 @@
         <v>99</v>
       </c>
       <c r="D99">
-        <v>48.225586839174298</v>
+        <v>48.202808579018303</v>
       </c>
       <c r="E99">
-        <v>16.349500070214798</v>
+        <v>16.379578467601899</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4116,7 +4233,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>6</v>
@@ -4125,10 +4242,10 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>48.1970803711367</v>
+        <v>48.204540181864402</v>
       </c>
       <c r="E100">
-        <v>16.3459802174687</v>
+        <v>16.3091474289552</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
@@ -4143,7 +4260,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>6</v>
@@ -4152,16 +4269,16 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>48.214526571260997</v>
+        <v>48.208046834199401</v>
       </c>
       <c r="E101">
-        <v>16.361836178517599</v>
+        <v>16.3715306120903</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4170,7 +4287,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>6</v>
@@ -4179,16 +4296,16 @@
         <v>99</v>
       </c>
       <c r="D102">
-        <v>48.246405762873401</v>
+        <v>48.193916076791602</v>
       </c>
       <c r="E102">
-        <v>16.394834441936599</v>
+        <v>16.370341054127302</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4197,7 +4314,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>6</v>
@@ -4206,10 +4323,10 @@
         <v>99</v>
       </c>
       <c r="D103">
-        <v>48.241860535835002</v>
+        <v>48.2078009691215</v>
       </c>
       <c r="E103">
-        <v>16.385702894060199</v>
+        <v>16.338015523652398</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
@@ -4224,7 +4341,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>6</v>
@@ -4233,16 +4350,16 @@
         <v>99</v>
       </c>
       <c r="D104">
-        <v>48.185143015384497</v>
+        <v>48.1648596901655</v>
       </c>
       <c r="E104">
-        <v>16.417467121381801</v>
+        <v>16.327668774911601</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4251,7 +4368,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>6</v>
@@ -4260,16 +4377,16 @@
         <v>99</v>
       </c>
       <c r="D105">
-        <v>48.174718736083598</v>
+        <v>48.191127863278602</v>
       </c>
       <c r="E105">
-        <v>16.414796672573601</v>
+        <v>16.285948386992299</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4278,7 +4395,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>6</v>
@@ -4287,16 +4404,16 @@
         <v>99</v>
       </c>
       <c r="D106">
-        <v>48.219130313111201</v>
+        <v>48.204915658283099</v>
       </c>
       <c r="E106">
-        <v>16.381291851267001</v>
+        <v>16.3582601366227</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4305,7 +4422,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>6</v>
@@ -4314,16 +4431,16 @@
         <v>99</v>
       </c>
       <c r="D107">
-        <v>48.1969570149733</v>
+        <v>48.2236292672643</v>
       </c>
       <c r="E107">
-        <v>16.260835508353701</v>
+        <v>16.401076559650701</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4332,7 +4449,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>6</v>
@@ -4341,16 +4458,16 @@
         <v>99</v>
       </c>
       <c r="D108">
-        <v>48.188483960992599</v>
+        <v>48.195838255457602</v>
       </c>
       <c r="E108">
-        <v>16.342954397677602</v>
+        <v>16.3396016754645</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4359,7 +4476,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>6</v>
@@ -4368,16 +4485,16 @@
         <v>99</v>
       </c>
       <c r="D109">
-        <v>48.18604725454</v>
+        <v>48.150727425264598</v>
       </c>
       <c r="E109">
-        <v>16.3189556071334</v>
+        <v>16.316875926933299</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4386,7 +4503,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>6</v>
@@ -4395,10 +4512,10 @@
         <v>99</v>
       </c>
       <c r="D110">
-        <v>48.1607153820297</v>
+        <v>48.225586839174298</v>
       </c>
       <c r="E110">
-        <v>16.324229809458199</v>
+        <v>16.349500070214798</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -4413,7 +4530,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>6</v>
@@ -4422,10 +4539,10 @@
         <v>99</v>
       </c>
       <c r="D111">
-        <v>48.206816355148803</v>
+        <v>48.1970803711367</v>
       </c>
       <c r="E111">
-        <v>16.3791309479708</v>
+        <v>16.3459802174687</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -4440,38 +4557,337 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>99</v>
+      </c>
+      <c r="D112">
+        <v>48.214526571260997</v>
+      </c>
+      <c r="E112">
+        <v>16.361836178517599</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>99</v>
+      </c>
+      <c r="D113">
+        <v>48.246405762873401</v>
+      </c>
+      <c r="E113">
+        <v>16.394834441936599</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>99</v>
+      </c>
+      <c r="D114">
+        <v>48.241860535835002</v>
+      </c>
+      <c r="E114">
+        <v>16.385702894060199</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>99</v>
+      </c>
+      <c r="D115">
+        <v>48.185143015384497</v>
+      </c>
+      <c r="E115">
+        <v>16.417467121381801</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>99</v>
+      </c>
+      <c r="D116">
+        <v>48.174718736083598</v>
+      </c>
+      <c r="E116">
+        <v>16.414796672573601</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>99</v>
+      </c>
+      <c r="D117">
+        <v>48.219130313111201</v>
+      </c>
+      <c r="E117">
+        <v>16.381291851267001</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>99</v>
+      </c>
+      <c r="D118">
+        <v>48.1969570149733</v>
+      </c>
+      <c r="E118">
+        <v>16.260835508353701</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>99</v>
+      </c>
+      <c r="D119">
+        <v>48.188483960992599</v>
+      </c>
+      <c r="E119">
+        <v>16.342954397677602</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>99</v>
+      </c>
+      <c r="D120">
+        <v>48.18604725454</v>
+      </c>
+      <c r="E120">
+        <v>16.3189556071334</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>99</v>
+      </c>
+      <c r="D121">
+        <v>48.1607153820297</v>
+      </c>
+      <c r="E121">
+        <v>16.324229809458199</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>99</v>
+      </c>
+      <c r="D122">
+        <v>48.206816355148803</v>
+      </c>
+      <c r="E122">
+        <v>16.3791309479708</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>99</v>
-      </c>
-      <c r="D112">
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>99</v>
+      </c>
+      <c r="D123">
         <v>48.169649232274203</v>
       </c>
-      <c r="E112">
+      <c r="E123">
         <v>16.4207002221215</v>
       </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112">
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123">
         <v>3</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1"/>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="https://asset.dibeo.at/467/83754b3583a04836848fc2b0831bdaa4/big-webp/wohnzimmer.webp" xr:uid="{052622E6-D87E-47DB-BEA9-706D4BD8DCE9}"/>
+    <hyperlink ref="J22" r:id="rId2" xr:uid="{5E056D3E-D2B4-4D25-A95A-1FCB9EE6EECA}"/>
+    <hyperlink ref="J24" r:id="rId3" xr:uid="{E9EA589C-1378-4FFB-9EF6-1C9D90C343C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>